--- a/StructureDefinition-profile-Procedure.xlsx
+++ b/StructureDefinition-profile-Procedure.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2328" uniqueCount="447">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2589" uniqueCount="489">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T13:17:30.7717148-06:00</t>
+    <t>2026-02-09T22:05:43.2824755-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -446,6 +446,12 @@
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
+    <t>Procedure.extension:occurrence</t>
+  </si>
+  <si>
+    <t>occurrence</t>
+  </si>
+  <si>
     <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Procedure.occurrence|0.0.1-snapshot-3}
 </t>
   </si>
@@ -456,14 +462,107 @@
     <t>Estimated or actual date, date-time, period, or age when the procedure did occur or is occurring.  Allows a period to support complex procedures that span more than one date, and also allows for the length of the procedure to be captured.</t>
   </si>
   <si>
-    <t>This indicates when the procedure actually occurred or is occurring, not when it was asked/requested/ordered to occur. For the latter, look at the occurence element of the Request this Procedure is "basedOn". The status code allows differentiation of whether the timing reflects a historic event or an ongoing event. Ongoing events should not include an upper bound in the Period or Timing.bounds.
-Age is generally used when the patient reports an age at which the procedure was performed. Range is generally used when the patient reports an age range when the procedure was performed, such as sometime between 20-25 years old.  dateTime supports a range of precision due to some procedures being reported as past procedures that might not have millisecond precision while other procedures performed and documented during the encounter might have more precise UTC timestamps with timezone.</t>
+    <t>Note that the target element context `Procedure.performed[x]` is a choice-type element and cannot directly hold extensions. The context is moved up to parent element `Procedure`.
+Element `Procedure.occurrence[x]` is mapped to FHIR R4 element `Procedure.performed[x]`.
+Note that the target element context `Procedure.performed[x]` is a choice-type element and cannot directly hold extensions. The context is moved up to parent element `Procedure`.</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
 </t>
   </si>
   <si>
+    <t>Procedure.extension:recorded</t>
+  </si>
+  <si>
+    <t>recorded</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Procedure.recorded|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for Procedure.recorded from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>The date the occurrence of the procedure was first captured in the record regardless of Procedure.status (potentially after the occurrence of the event).</t>
+  </si>
+  <si>
+    <t>Element `Procedure.recorded` is will have a context of Procedure based on following the parent source element upwards and mapping to `Procedure`.</t>
+  </si>
+  <si>
+    <t>Procedure.extension:reported</t>
+  </si>
+  <si>
+    <t>reported</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Procedure.reported|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for Procedure.reported[x] from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Indicates if this record was captured as a secondary 'reported' record rather than as an original primary source-of-truth record.  It may also indicate the source of the report.</t>
+  </si>
+  <si>
+    <t>Element `Procedure.reported[x]` is will have a context of Procedure based on following the parent source element upwards and mapping to `Procedure`.</t>
+  </si>
+  <si>
+    <t>Procedure.extension:reportedCanonical</t>
+  </si>
+  <si>
+    <t>reportedCanonical</t>
+  </si>
+  <si>
+    <t>This extension can be used as a substitute for http://hl7.org/fhir/StructureDefinition/Organization,http://hl7.org/fhir/StructureDefinition/Patient,http://hl7.org/fhir/StructureDefinition/Practitioner,http://hl7.org/fhir/StructureDefinition/PractitionerRole,http://hl7.org/fhir/StructureDefinition/RelatedPerson in FHIR R4</t>
+  </si>
+  <si>
+    <t>Procedure.extension:reportedReference</t>
+  </si>
+  <si>
+    <t>reportedReference</t>
+  </si>
+  <si>
+    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/Organization,http://hl7.org/fhir/StructureDefinition/Patient,http://hl7.org/fhir/StructureDefinition/Practitioner,http://hl7.org/fhir/StructureDefinition/PractitionerRole,http://hl7.org/fhir/StructureDefinition/RelatedPerson in FHIR R4</t>
+  </si>
+  <si>
+    <t>Procedure.extension:focus</t>
+  </si>
+  <si>
+    <t>focus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {alternate-reference|5.2.0}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for Procedure.focus from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/CareTeam,http://hl7.org/fhir/StructureDefinition/Group,http://hl7.org/fhir/StructureDefinition/Organization,http://hl7.org/fhir/StructureDefinition/Patient,http://hl7.org/fhir/StructureDefinition/Practitioner,http://hl7.org/fhir/StructureDefinition/PractitionerRole,http://hl7.org/fhir/StructureDefinition/RelatedPerson,http://hl7.org/fhir/StructureDefinition/Specimen in FHIR R4</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `Procedure.focus` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
+Element `Procedure.focus` is will have a context of Procedure based on following the parent source element upwards and mapping to `Procedure`.</t>
+  </si>
+  <si>
+    <t>Procedure.extension:supportingInfo</t>
+  </si>
+  <si>
+    <t>supportingInfo</t>
+  </si>
+  <si>
+    <t>Cross-version extension for Procedure.supportingInfo from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/Resource in FHIR R4</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `Procedure.supportingInfo` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
+Element `Procedure.supportingInfo` is will have a context of Procedure based on following the parent source element upwards and mapping to `Procedure`.</t>
+  </si>
+  <si>
     <t>Procedure.modifierExtension</t>
   </si>
   <si>
@@ -882,13 +981,26 @@
     <t>Procedure.performer.extension</t>
   </si>
   <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
     <t>Element.extension</t>
+  </si>
+  <si>
+    <t>Procedure.performer.extension:period</t>
+  </si>
+  <si>
+    <t>period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Procedure.performer.period|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for Procedure.performer.period from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Time period during which the performer performed the procedure.</t>
+  </si>
+  <si>
+    <t>Element `Procedure.performer.period` is will have a context of Procedure.performer based on following the parent source element upwards and mapping to `Procedure`.</t>
   </si>
   <si>
     <t>Procedure.performer.modifierExtension</t>
@@ -972,14 +1084,20 @@
     <t>Extensions are always sliced by (at least) url</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Procedure.performer.actor|0.0.1-snapshot-3}
-</t>
+    <t>Procedure.performer.actor.extension:actor</t>
+  </si>
+  <si>
+    <t>actor</t>
   </si>
   <si>
     <t>Cross-version extension for Procedure.performer.actor from R5 for use in FHIR R4</t>
   </si>
   <si>
-    <t>Indicates who or what performed the procedure.</t>
+    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/CareTeam,http://hl7.org/fhir/StructureDefinition/HealthcareService in FHIR R4</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `Procedure.performer.actor` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
+Element `Procedure.performer.actor` is mapped to FHIR R4 element `Procedure.performer.actor`.</t>
   </si>
   <si>
     <t>Procedure.performer.actor.reference</t>
@@ -1220,11 +1338,20 @@
     <t>Procedure.report.extension</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Procedure.report|0.0.1-snapshot-3}
-</t>
+    <t>Procedure.report.extension:report</t>
+  </si>
+  <si>
+    <t>report</t>
   </si>
   <si>
     <t>Cross-version extension for Procedure.report from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/DocumentReference in FHIR R4</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `Procedure.report` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
+Element `Procedure.report` is mapped to FHIR R4 element `Procedure.report`.</t>
   </si>
   <si>
     <t>Procedure.report.reference</t>
@@ -1332,6 +1459,12 @@
   </si>
   <si>
     <t>Procedure.focalDevice.extension</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>Procedure.focalDevice.modifierExtension</t>
@@ -1716,7 +1849,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN64"/>
+  <dimension ref="A1:AN71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1725,9 +1858,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="34.09375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="35.6953125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="34.09375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="9.984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="16.203125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
@@ -2695,7 +2828,7 @@
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>79</v>
@@ -2794,12 +2927,14 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="B10" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="C10" s="2"/>
+      <c r="C10" t="s" s="2">
+        <v>140</v>
+      </c>
       <c r="D10" t="s" s="2">
         <v>77</v>
       </c>
@@ -2820,16 +2955,16 @@
         <v>77</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
@@ -2888,7 +3023,7 @@
         <v>79</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>138</v>
@@ -2908,46 +3043,46 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="C11" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="C11" t="s" s="2">
+        <v>147</v>
+      </c>
       <c r="D11" t="s" s="2">
-        <v>145</v>
+        <v>77</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="J11" t="s" s="2">
         <v>77</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="O11" t="s" s="2">
-        <v>149</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
         <v>77</v>
       </c>
@@ -2995,7 +3130,7 @@
         <v>77</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>78</v>
@@ -3004,7 +3139,7 @@
         <v>79</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>77</v>
+        <v>145</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>138</v>
@@ -3013,7 +3148,7 @@
         <v>77</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>130</v>
+        <v>77</v>
       </c>
       <c r="AM11" t="s" s="2">
         <v>77</v>
@@ -3024,12 +3159,14 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="C12" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="C12" t="s" s="2">
+        <v>153</v>
+      </c>
       <c r="D12" t="s" s="2">
         <v>77</v>
       </c>
@@ -3038,7 +3175,7 @@
         <v>78</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>77</v>
@@ -3047,23 +3184,21 @@
         <v>77</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="O12" t="s" s="2">
-        <v>156</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
         <v>77</v>
       </c>
@@ -3111,7 +3246,7 @@
         <v>77</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>78</v>
@@ -3120,32 +3255,34 @@
         <v>79</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>77</v>
+        <v>145</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>157</v>
+        <v>77</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>158</v>
+        <v>77</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>159</v>
+        <v>77</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>160</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="C13" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="C13" t="s" s="2">
+        <v>159</v>
+      </c>
       <c r="D13" t="s" s="2">
         <v>77</v>
       </c>
@@ -3154,7 +3291,7 @@
         <v>78</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>77</v>
@@ -3163,18 +3300,20 @@
         <v>77</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="N13" s="2"/>
+        <v>160</v>
+      </c>
+      <c r="N13" t="s" s="2">
+        <v>157</v>
+      </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
         <v>77</v>
@@ -3223,7 +3362,7 @@
         <v>77</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>78</v>
@@ -3232,16 +3371,16 @@
         <v>79</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>77</v>
+        <v>145</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>165</v>
+        <v>77</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>166</v>
+        <v>77</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>77</v>
@@ -3252,12 +3391,14 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="C14" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="C14" t="s" s="2">
+        <v>162</v>
+      </c>
       <c r="D14" t="s" s="2">
         <v>77</v>
       </c>
@@ -3266,7 +3407,7 @@
         <v>78</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>77</v>
@@ -3275,19 +3416,19 @@
         <v>77</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>101</v>
+        <v>154</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3337,7 +3478,7 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>167</v>
+        <v>137</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
@@ -3346,16 +3487,16 @@
         <v>79</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>77</v>
+        <v>145</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>171</v>
+        <v>77</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>166</v>
+        <v>77</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>77</v>
@@ -3366,21 +3507,23 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="C15" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="C15" t="s" s="2">
+        <v>165</v>
+      </c>
       <c r="D15" t="s" s="2">
-        <v>173</v>
+        <v>77</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>77</v>
@@ -3389,18 +3532,20 @@
         <v>77</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="N15" s="2"/>
+        <v>168</v>
+      </c>
+      <c r="N15" t="s" s="2">
+        <v>169</v>
+      </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
         <v>77</v>
@@ -3449,7 +3594,7 @@
         <v>77</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>172</v>
+        <v>137</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>78</v>
@@ -3461,13 +3606,13 @@
         <v>77</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>177</v>
+        <v>77</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>178</v>
+        <v>77</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>77</v>
@@ -3478,14 +3623,16 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="C16" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="C16" t="s" s="2">
+        <v>171</v>
+      </c>
       <c r="D16" t="s" s="2">
-        <v>180</v>
+        <v>77</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -3501,19 +3648,19 @@
         <v>77</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -3563,7 +3710,7 @@
         <v>77</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>179</v>
+        <v>137</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>78</v>
@@ -3575,13 +3722,13 @@
         <v>77</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>185</v>
+        <v>77</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>186</v>
+        <v>77</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>77</v>
@@ -3592,21 +3739,21 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>77</v>
+        <v>176</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>77</v>
@@ -3615,21 +3762,23 @@
         <v>88</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="O17" s="2"/>
+        <v>179</v>
+      </c>
+      <c r="O17" t="s" s="2">
+        <v>180</v>
+      </c>
       <c r="P17" t="s" s="2">
         <v>77</v>
       </c>
@@ -3653,13 +3802,13 @@
         <v>77</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>191</v>
+        <v>77</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>192</v>
+        <v>77</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>193</v>
+        <v>77</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>77</v>
@@ -3677,28 +3826,28 @@
         <v>77</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>194</v>
+        <v>77</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>195</v>
+        <v>130</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>196</v>
+        <v>77</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>77</v>
@@ -3706,21 +3855,21 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>198</v>
+        <v>77</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>77</v>
@@ -3732,18 +3881,20 @@
         <v>88</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>200</v>
+        <v>184</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="O18" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="O18" t="s" s="2">
+        <v>187</v>
+      </c>
       <c r="P18" t="s" s="2">
         <v>77</v>
       </c>
@@ -3767,13 +3918,13 @@
         <v>77</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>203</v>
+        <v>77</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>204</v>
+        <v>77</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>205</v>
+        <v>77</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>77</v>
@@ -3791,13 +3942,13 @@
         <v>77</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>77</v>
@@ -3806,24 +3957,24 @@
         <v>99</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>206</v>
+        <v>188</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>207</v>
+        <v>189</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>77</v>
+        <v>190</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>77</v>
+        <v>191</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3834,7 +3985,7 @@
         <v>78</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>77</v>
@@ -3846,13 +3997,13 @@
         <v>88</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -3879,13 +4030,13 @@
         <v>77</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>203</v>
+        <v>77</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>211</v>
+        <v>77</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>212</v>
+        <v>77</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>77</v>
@@ -3903,13 +4054,13 @@
         <v>77</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>77</v>
@@ -3918,13 +4069,13 @@
         <v>99</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>77</v>
+        <v>196</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>213</v>
+        <v>197</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>214</v>
+        <v>77</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>77</v>
@@ -3932,21 +4083,21 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>215</v>
+        <v>198</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>215</v>
+        <v>198</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>216</v>
+        <v>77</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>77</v>
@@ -3958,18 +4109,18 @@
         <v>88</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="L20" t="s" s="2">
-        <v>217</v>
-      </c>
       <c r="M20" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="N20" s="2"/>
-      <c r="O20" t="s" s="2">
-        <v>219</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>77</v>
       </c>
@@ -3993,13 +4144,13 @@
         <v>77</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>203</v>
+        <v>77</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>220</v>
+        <v>77</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>221</v>
+        <v>77</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>77</v>
@@ -4017,13 +4168,13 @@
         <v>77</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>215</v>
+        <v>198</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>77</v>
@@ -4032,35 +4183,35 @@
         <v>99</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>222</v>
+        <v>202</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>223</v>
+        <v>197</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>224</v>
+        <v>77</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>225</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>226</v>
+        <v>203</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>226</v>
+        <v>203</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>227</v>
+        <v>204</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>77</v>
@@ -4072,13 +4223,13 @@
         <v>88</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>228</v>
+        <v>205</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>229</v>
+        <v>206</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>230</v>
+        <v>207</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -4129,13 +4280,13 @@
         <v>77</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>226</v>
+        <v>203</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>77</v>
@@ -4144,35 +4295,35 @@
         <v>99</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>231</v>
+        <v>208</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>232</v>
+        <v>209</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>233</v>
+        <v>77</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>234</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>235</v>
+        <v>210</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>235</v>
+        <v>210</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>77</v>
+        <v>211</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>77</v>
@@ -4184,16 +4335,16 @@
         <v>88</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>236</v>
+        <v>212</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>237</v>
+        <v>213</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>238</v>
+        <v>214</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>239</v>
+        <v>215</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -4243,13 +4394,13 @@
         <v>77</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>235</v>
+        <v>210</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>77</v>
@@ -4258,24 +4409,24 @@
         <v>99</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>240</v>
+        <v>216</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>241</v>
+        <v>217</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>242</v>
+        <v>77</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>243</v>
+        <v>77</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>244</v>
+        <v>218</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>244</v>
+        <v>218</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4283,7 +4434,7 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>87</v>
@@ -4292,22 +4443,22 @@
         <v>77</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="J23" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>245</v>
+        <v>107</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>246</v>
+        <v>219</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>247</v>
+        <v>220</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>248</v>
+        <v>221</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4333,13 +4484,13 @@
         <v>77</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>77</v>
+        <v>222</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>77</v>
+        <v>223</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>77</v>
+        <v>224</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>77</v>
@@ -4357,10 +4508,10 @@
         <v>77</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>244</v>
+        <v>218</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>87</v>
@@ -4372,28 +4523,28 @@
         <v>99</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>249</v>
+        <v>225</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>250</v>
+        <v>226</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>251</v>
+        <v>227</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>252</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>253</v>
+        <v>228</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>253</v>
+        <v>228</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>77</v>
+        <v>229</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
@@ -4412,15 +4563,17 @@
         <v>88</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>254</v>
+        <v>230</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>255</v>
+        <v>231</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="N24" s="2"/>
+        <v>232</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>233</v>
+      </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>77</v>
@@ -4445,13 +4598,13 @@
         <v>77</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>77</v>
+        <v>234</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>77</v>
+        <v>235</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>77</v>
+        <v>236</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>77</v>
@@ -4469,7 +4622,7 @@
         <v>77</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>253</v>
+        <v>228</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
@@ -4484,13 +4637,13 @@
         <v>99</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>77</v>
+        <v>237</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>257</v>
+        <v>238</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>258</v>
+        <v>77</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>77</v>
@@ -4498,10 +4651,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>259</v>
+        <v>239</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>259</v>
+        <v>239</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4524,13 +4677,13 @@
         <v>88</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>254</v>
+        <v>230</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>261</v>
+        <v>241</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -4557,13 +4710,13 @@
         <v>77</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>77</v>
+        <v>234</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>77</v>
+        <v>242</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>77</v>
+        <v>243</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>77</v>
@@ -4581,7 +4734,7 @@
         <v>77</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>259</v>
+        <v>239</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>78</v>
@@ -4599,10 +4752,10 @@
         <v>77</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>262</v>
+        <v>244</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>263</v>
+        <v>245</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>77</v>
@@ -4610,21 +4763,21 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>77</v>
+        <v>247</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>77</v>
@@ -4636,16 +4789,18 @@
         <v>88</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>265</v>
+        <v>230</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>266</v>
+        <v>248</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>267</v>
+        <v>249</v>
       </c>
       <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
+      <c r="O26" t="s" s="2">
+        <v>250</v>
+      </c>
       <c r="P26" t="s" s="2">
         <v>77</v>
       </c>
@@ -4669,13 +4824,13 @@
         <v>77</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>77</v>
+        <v>234</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>77</v>
+        <v>251</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>77</v>
+        <v>252</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>77</v>
@@ -4693,13 +4848,13 @@
         <v>77</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>77</v>
@@ -4708,32 +4863,32 @@
         <v>99</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>77</v>
+        <v>255</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>77</v>
+        <v>256</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>77</v>
+        <v>258</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>87</v>
@@ -4745,16 +4900,16 @@
         <v>77</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -4805,10 +4960,10 @@
         <v>77</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>274</v>
+        <v>257</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>87</v>
@@ -4817,38 +4972,38 @@
         <v>77</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>77</v>
+        <v>262</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>77</v>
+        <v>264</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>77</v>
+        <v>265</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>145</v>
+        <v>77</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>77</v>
@@ -4857,19 +5012,19 @@
         <v>77</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>132</v>
+        <v>267</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>148</v>
+        <v>270</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -4919,75 +5074,73 @@
         <v>77</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>279</v>
+        <v>266</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>77</v>
+        <v>271</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>77</v>
+        <v>273</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>77</v>
+        <v>274</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>281</v>
+        <v>77</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="J29" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>132</v>
+        <v>276</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="O29" t="s" s="2">
-        <v>149</v>
-      </c>
+        <v>279</v>
+      </c>
+      <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>77</v>
       </c>
@@ -5035,39 +5188,39 @@
         <v>77</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>77</v>
+        <v>280</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>130</v>
+        <v>281</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>77</v>
+        <v>282</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>77</v>
+        <v>283</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5090,7 +5243,7 @@
         <v>88</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>199</v>
+        <v>285</v>
       </c>
       <c r="L30" t="s" s="2">
         <v>286</v>
@@ -5099,9 +5252,7 @@
         <v>287</v>
       </c>
       <c r="N30" s="2"/>
-      <c r="O30" t="s" s="2">
-        <v>288</v>
-      </c>
+      <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>77</v>
       </c>
@@ -5125,13 +5276,13 @@
         <v>77</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>203</v>
+        <v>77</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>289</v>
+        <v>77</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>290</v>
+        <v>77</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>77</v>
@@ -5149,7 +5300,7 @@
         <v>77</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>78</v>
@@ -5164,24 +5315,24 @@
         <v>99</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>291</v>
+        <v>77</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>77</v>
+        <v>289</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>293</v>
+        <v>77</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5189,7 +5340,7 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>87</v>
@@ -5204,18 +5355,16 @@
         <v>88</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="N31" s="2"/>
-      <c r="O31" t="s" s="2">
-        <v>298</v>
-      </c>
+      <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>77</v>
       </c>
@@ -5263,10 +5412,10 @@
         <v>77</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>87</v>
@@ -5278,24 +5427,24 @@
         <v>99</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>299</v>
+        <v>77</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>302</v>
+        <v>77</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5306,7 +5455,7 @@
         <v>78</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>77</v>
@@ -5315,16 +5464,16 @@
         <v>77</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>271</v>
+        <v>296</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>272</v>
+        <v>297</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>273</v>
+        <v>298</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5375,25 +5524,25 @@
         <v>77</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>274</v>
+        <v>295</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>77</v>
+        <v>299</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>275</v>
+        <v>300</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>77</v>
@@ -5404,10 +5553,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5415,11 +5564,11 @@
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G33" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G33" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="H33" t="s" s="2">
         <v>77</v>
       </c>
@@ -5430,13 +5579,13 @@
         <v>77</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>132</v>
+        <v>302</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>133</v>
+        <v>303</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>134</v>
+        <v>304</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -5475,37 +5624,37 @@
         <v>77</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AC33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF33" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="AD33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE33" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AF33" t="s" s="2">
-        <v>279</v>
-      </c>
       <c r="AG33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>77</v>
+        <v>306</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>77</v>
@@ -5516,10 +5665,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5527,10 +5676,10 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>77</v>
@@ -5542,13 +5691,13 @@
         <v>77</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>306</v>
+        <v>132</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>307</v>
+        <v>133</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>308</v>
+        <v>134</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5587,19 +5736,17 @@
         <v>77</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC34" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="AC34" s="2"/>
       <c r="AD34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>77</v>
+        <v>136</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>279</v>
+        <v>308</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
@@ -5631,9 +5778,11 @@
         <v>309</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="C35" s="2"/>
+        <v>307</v>
+      </c>
+      <c r="C35" t="s" s="2">
+        <v>310</v>
+      </c>
       <c r="D35" t="s" s="2">
         <v>77</v>
       </c>
@@ -5651,19 +5800,19 @@
         <v>77</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>271</v>
+        <v>311</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -5713,25 +5862,25 @@
         <v>77</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>314</v>
+        <v>145</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>130</v>
+        <v>77</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>77</v>
@@ -5749,37 +5898,39 @@
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>77</v>
+        <v>316</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="J36" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>101</v>
+        <v>132</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="O36" s="2"/>
+        <v>179</v>
+      </c>
+      <c r="O36" t="s" s="2">
+        <v>180</v>
+      </c>
       <c r="P36" t="s" s="2">
         <v>77</v>
       </c>
@@ -5803,43 +5954,43 @@
         <v>77</v>
       </c>
       <c r="X36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF36" t="s" s="2">
         <v>319</v>
       </c>
-      <c r="Y36" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="Z36" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="AA36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF36" t="s" s="2">
-        <v>322</v>
-      </c>
       <c r="AG36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>77</v>
@@ -5856,10 +6007,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5882,18 +6033,18 @@
         <v>88</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>152</v>
+        <v>230</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="O37" s="2"/>
+        <v>322</v>
+      </c>
+      <c r="N37" s="2"/>
+      <c r="O37" t="s" s="2">
+        <v>323</v>
+      </c>
       <c r="P37" t="s" s="2">
         <v>77</v>
       </c>
@@ -5917,13 +6068,13 @@
         <v>77</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>77</v>
+        <v>234</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>77</v>
+        <v>324</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>77</v>
+        <v>325</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>77</v>
@@ -5941,7 +6092,7 @@
         <v>77</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
@@ -5956,16 +6107,16 @@
         <v>99</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>77</v>
+        <v>326</v>
       </c>
       <c r="AL37" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="AM37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN37" t="s" s="2">
         <v>328</v>
-      </c>
-      <c r="AM37" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN37" t="s" s="2">
-        <v>77</v>
       </c>
     </row>
     <row r="38">
@@ -5981,7 +6132,7 @@
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>87</v>
@@ -5996,18 +6147,18 @@
         <v>88</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>271</v>
+        <v>330</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="N38" t="s" s="2">
         <v>332</v>
       </c>
-      <c r="O38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" t="s" s="2">
+        <v>333</v>
+      </c>
       <c r="P38" t="s" s="2">
         <v>77</v>
       </c>
@@ -6055,10 +6206,10 @@
         <v>77</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>87</v>
@@ -6070,24 +6221,24 @@
         <v>99</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>77</v>
+        <v>334</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>130</v>
+        <v>335</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>77</v>
+        <v>336</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>77</v>
+        <v>337</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6110,18 +6261,16 @@
         <v>77</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>335</v>
+        <v>302</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>336</v>
+        <v>303</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>337</v>
+        <v>304</v>
       </c>
       <c r="N39" s="2"/>
-      <c r="O39" t="s" s="2">
-        <v>338</v>
-      </c>
+      <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>77</v>
       </c>
@@ -6169,7 +6318,7 @@
         <v>77</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>334</v>
+        <v>305</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
@@ -6181,13 +6330,13 @@
         <v>77</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>339</v>
+        <v>306</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>77</v>
@@ -6198,10 +6347,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6209,10 +6358,10 @@
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>77</v>
@@ -6221,21 +6370,19 @@
         <v>77</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>341</v>
+        <v>132</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>342</v>
+        <v>133</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>343</v>
+        <v>134</v>
       </c>
       <c r="N40" s="2"/>
-      <c r="O40" t="s" s="2">
-        <v>344</v>
-      </c>
+      <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>77</v>
       </c>
@@ -6271,40 +6418,40 @@
         <v>77</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>77</v>
+        <v>340</v>
       </c>
       <c r="AD40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>77</v>
+        <v>136</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>340</v>
+        <v>308</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>345</v>
+        <v>77</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>346</v>
+        <v>77</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>77</v>
@@ -6312,21 +6459,23 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="C41" s="2"/>
+        <v>339</v>
+      </c>
+      <c r="C41" t="s" s="2">
+        <v>342</v>
+      </c>
       <c r="D41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>77</v>
@@ -6335,19 +6484,19 @@
         <v>77</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>199</v>
+        <v>166</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -6373,13 +6522,13 @@
         <v>77</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>203</v>
+        <v>77</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>351</v>
+        <v>77</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>352</v>
+        <v>77</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>77</v>
@@ -6397,7 +6546,7 @@
         <v>77</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>347</v>
+        <v>308</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>78</v>
@@ -6409,16 +6558,16 @@
         <v>77</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>353</v>
+        <v>77</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>354</v>
+        <v>77</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>355</v>
+        <v>77</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>77</v>
@@ -6426,10 +6575,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6440,7 +6589,7 @@
         <v>78</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>77</v>
@@ -6452,16 +6601,16 @@
         <v>88</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>357</v>
+        <v>302</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>358</v>
+        <v>347</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>359</v>
+        <v>348</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>360</v>
+        <v>349</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -6511,28 +6660,28 @@
         <v>77</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>77</v>
+        <v>351</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>361</v>
+        <v>77</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>354</v>
+        <v>130</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>355</v>
+        <v>77</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>77</v>
@@ -6540,10 +6689,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6554,7 +6703,7 @@
         <v>78</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>77</v>
@@ -6566,16 +6715,16 @@
         <v>88</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>199</v>
+        <v>101</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -6601,13 +6750,13 @@
         <v>77</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>203</v>
+        <v>356</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>77</v>
@@ -6625,13 +6774,13 @@
         <v>77</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>77</v>
@@ -6643,21 +6792,21 @@
         <v>77</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>368</v>
+        <v>130</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>369</v>
+        <v>77</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6680,16 +6829,16 @@
         <v>88</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -6715,13 +6864,13 @@
         <v>77</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>203</v>
+        <v>77</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>374</v>
+        <v>77</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>375</v>
+        <v>77</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>77</v>
@@ -6739,7 +6888,7 @@
         <v>77</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
@@ -6757,7 +6906,7 @@
         <v>77</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>376</v>
+        <v>365</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>77</v>
@@ -6768,10 +6917,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6782,7 +6931,7 @@
         <v>78</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>77</v>
@@ -6791,19 +6940,19 @@
         <v>77</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>378</v>
+        <v>302</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>379</v>
+        <v>367</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>380</v>
+        <v>368</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>381</v>
+        <v>369</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -6853,13 +7002,13 @@
         <v>77</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>77</v>
@@ -6871,7 +7020,7 @@
         <v>77</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>382</v>
+        <v>130</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>77</v>
@@ -6882,10 +7031,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6908,16 +7057,18 @@
         <v>77</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>271</v>
+        <v>372</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>272</v>
+        <v>373</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>273</v>
+        <v>374</v>
       </c>
       <c r="N46" s="2"/>
-      <c r="O46" s="2"/>
+      <c r="O46" t="s" s="2">
+        <v>375</v>
+      </c>
       <c r="P46" t="s" s="2">
         <v>77</v>
       </c>
@@ -6965,7 +7116,7 @@
         <v>77</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>274</v>
+        <v>371</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>78</v>
@@ -6977,13 +7128,13 @@
         <v>77</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>275</v>
+        <v>376</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>77</v>
@@ -6994,10 +7145,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7005,11 +7156,11 @@
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G47" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G47" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="H47" t="s" s="2">
         <v>77</v>
       </c>
@@ -7017,19 +7168,21 @@
         <v>77</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>132</v>
+        <v>378</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>133</v>
+        <v>379</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>134</v>
+        <v>380</v>
       </c>
       <c r="N47" s="2"/>
-      <c r="O47" s="2"/>
+      <c r="O47" t="s" s="2">
+        <v>381</v>
+      </c>
       <c r="P47" t="s" s="2">
         <v>77</v>
       </c>
@@ -7065,40 +7218,40 @@
         <v>77</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AC47" t="s" s="2">
-        <v>305</v>
+        <v>77</v>
       </c>
       <c r="AD47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>136</v>
+        <v>77</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>279</v>
+        <v>377</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>77</v>
+        <v>382</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>77</v>
+        <v>383</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>77</v>
@@ -7129,19 +7282,19 @@
         <v>77</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>385</v>
       </c>
-      <c r="L48" t="s" s="2">
+      <c r="M48" t="s" s="2">
         <v>386</v>
       </c>
-      <c r="M48" t="s" s="2">
-        <v>380</v>
-      </c>
       <c r="N48" t="s" s="2">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -7167,13 +7320,13 @@
         <v>77</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>77</v>
+        <v>234</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>77</v>
+        <v>388</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>77</v>
+        <v>389</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>77</v>
@@ -7191,7 +7344,7 @@
         <v>77</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>279</v>
+        <v>384</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>78</v>
@@ -7203,16 +7356,16 @@
         <v>77</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>77</v>
+        <v>390</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>77</v>
+        <v>391</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>77</v>
+        <v>392</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>77</v>
@@ -7220,10 +7373,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7234,7 +7387,7 @@
         <v>78</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>77</v>
@@ -7246,16 +7399,16 @@
         <v>88</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>271</v>
+        <v>394</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>310</v>
+        <v>395</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>311</v>
+        <v>396</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>312</v>
+        <v>397</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -7305,28 +7458,28 @@
         <v>77</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>313</v>
+        <v>393</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>314</v>
+        <v>77</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>77</v>
+        <v>398</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>130</v>
+        <v>391</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>77</v>
+        <v>392</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>77</v>
@@ -7334,10 +7487,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>388</v>
+        <v>399</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>388</v>
+        <v>399</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7348,7 +7501,7 @@
         <v>78</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>77</v>
@@ -7360,16 +7513,16 @@
         <v>88</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>101</v>
+        <v>230</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>316</v>
+        <v>400</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>317</v>
+        <v>401</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>318</v>
+        <v>402</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -7395,13 +7548,13 @@
         <v>77</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>319</v>
+        <v>234</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>320</v>
+        <v>403</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>321</v>
+        <v>404</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>77</v>
@@ -7419,13 +7572,13 @@
         <v>77</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>322</v>
+        <v>399</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>77</v>
@@ -7437,21 +7590,21 @@
         <v>77</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>130</v>
+        <v>405</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>77</v>
+        <v>406</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>389</v>
+        <v>407</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>389</v>
+        <v>407</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7474,16 +7627,16 @@
         <v>88</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>152</v>
+        <v>230</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>324</v>
+        <v>408</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>325</v>
+        <v>409</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>326</v>
+        <v>410</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -7509,13 +7662,13 @@
         <v>77</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>77</v>
+        <v>234</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>77</v>
+        <v>411</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>77</v>
+        <v>412</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>77</v>
@@ -7533,7 +7686,7 @@
         <v>77</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>327</v>
+        <v>407</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>78</v>
@@ -7551,7 +7704,7 @@
         <v>77</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>328</v>
+        <v>413</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>77</v>
@@ -7562,10 +7715,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>390</v>
+        <v>414</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>390</v>
+        <v>414</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7576,7 +7729,7 @@
         <v>78</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>77</v>
@@ -7585,19 +7738,19 @@
         <v>77</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>271</v>
+        <v>415</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>330</v>
+        <v>416</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>331</v>
+        <v>417</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>332</v>
+        <v>418</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -7647,13 +7800,13 @@
         <v>77</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>333</v>
+        <v>414</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>77</v>
@@ -7665,7 +7818,7 @@
         <v>77</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>130</v>
+        <v>419</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>77</v>
@@ -7676,10 +7829,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>391</v>
+        <v>420</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>391</v>
+        <v>420</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7690,7 +7843,7 @@
         <v>78</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>77</v>
@@ -7702,17 +7855,15 @@
         <v>77</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>199</v>
+        <v>302</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>392</v>
+        <v>303</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>394</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="N53" s="2"/>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>77</v>
@@ -7737,13 +7888,13 @@
         <v>77</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>203</v>
+        <v>77</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>395</v>
+        <v>77</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>396</v>
+        <v>77</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>77</v>
@@ -7761,25 +7912,25 @@
         <v>77</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>391</v>
+        <v>305</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>397</v>
+        <v>306</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>77</v>
@@ -7790,10 +7941,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>398</v>
+        <v>421</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>398</v>
+        <v>421</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7816,18 +7967,16 @@
         <v>77</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>399</v>
+        <v>132</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>400</v>
+        <v>133</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>401</v>
+        <v>134</v>
       </c>
       <c r="N54" s="2"/>
-      <c r="O54" t="s" s="2">
-        <v>402</v>
-      </c>
+      <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>77</v>
       </c>
@@ -7863,19 +8012,19 @@
         <v>77</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AC54" t="s" s="2">
-        <v>77</v>
+        <v>340</v>
       </c>
       <c r="AD54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>77</v>
+        <v>136</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>398</v>
+        <v>308</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>78</v>
@@ -7887,13 +8036,13 @@
         <v>77</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>397</v>
+        <v>77</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>77</v>
@@ -7904,12 +8053,14 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>403</v>
+        <v>422</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="C55" s="2"/>
+        <v>421</v>
+      </c>
+      <c r="C55" t="s" s="2">
+        <v>423</v>
+      </c>
       <c r="D55" t="s" s="2">
         <v>77</v>
       </c>
@@ -7918,7 +8069,7 @@
         <v>78</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>77</v>
@@ -7930,15 +8081,17 @@
         <v>77</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>199</v>
+        <v>166</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>404</v>
+        <v>424</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="N55" s="2"/>
+        <v>425</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>426</v>
+      </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>77</v>
@@ -7963,13 +8116,13 @@
         <v>77</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>203</v>
+        <v>77</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>406</v>
+        <v>77</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>407</v>
+        <v>77</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>77</v>
@@ -7987,7 +8140,7 @@
         <v>77</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>403</v>
+        <v>308</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>78</v>
@@ -7999,13 +8152,13 @@
         <v>77</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>408</v>
+        <v>77</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>77</v>
@@ -8016,10 +8169,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>409</v>
+        <v>427</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>409</v>
+        <v>427</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8030,7 +8183,7 @@
         <v>78</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>77</v>
@@ -8039,18 +8192,20 @@
         <v>77</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>410</v>
+        <v>302</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>411</v>
+        <v>347</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="N56" s="2"/>
+        <v>348</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>349</v>
+      </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>77</v>
@@ -8099,39 +8254,39 @@
         <v>77</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>409</v>
+        <v>350</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>77</v>
+        <v>351</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>413</v>
+        <v>77</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>414</v>
+        <v>130</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>415</v>
+        <v>77</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>416</v>
+        <v>428</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>416</v>
+        <v>428</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8142,7 +8297,7 @@
         <v>78</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>77</v>
@@ -8151,18 +8306,20 @@
         <v>77</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>265</v>
+        <v>101</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>417</v>
+        <v>353</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="N57" s="2"/>
+        <v>354</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>355</v>
+      </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>77</v>
@@ -8187,13 +8344,13 @@
         <v>77</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>77</v>
+        <v>356</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>77</v>
+        <v>357</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>77</v>
+        <v>358</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>77</v>
@@ -8211,13 +8368,13 @@
         <v>77</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>416</v>
+        <v>359</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>77</v>
@@ -8229,7 +8386,7 @@
         <v>77</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>419</v>
+        <v>130</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>77</v>
@@ -8240,10 +8397,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>420</v>
+        <v>429</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>420</v>
+        <v>429</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8263,18 +8420,20 @@
         <v>77</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>271</v>
+        <v>183</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>272</v>
+        <v>361</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="N58" s="2"/>
+        <v>362</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>363</v>
+      </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>77</v>
@@ -8323,7 +8482,7 @@
         <v>77</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>274</v>
+        <v>364</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>78</v>
@@ -8335,13 +8494,13 @@
         <v>77</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>275</v>
+        <v>365</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>77</v>
@@ -8352,21 +8511,21 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>421</v>
+        <v>430</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>421</v>
+        <v>430</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>145</v>
+        <v>77</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>77</v>
@@ -8375,19 +8534,19 @@
         <v>77</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>132</v>
+        <v>302</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>277</v>
+        <v>367</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>278</v>
+        <v>368</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>148</v>
+        <v>369</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -8437,25 +8596,25 @@
         <v>77</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>279</v>
+        <v>370</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>275</v>
+        <v>130</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>77</v>
@@ -8466,14 +8625,14 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>422</v>
+        <v>431</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>422</v>
+        <v>431</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>281</v>
+        <v>77</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
@@ -8486,26 +8645,24 @@
         <v>77</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>132</v>
+        <v>230</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>282</v>
+        <v>432</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>283</v>
+        <v>433</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="O60" t="s" s="2">
-        <v>149</v>
-      </c>
+        <v>434</v>
+      </c>
+      <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>77</v>
       </c>
@@ -8529,13 +8686,13 @@
         <v>77</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>77</v>
+        <v>234</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>77</v>
+        <v>435</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>77</v>
+        <v>436</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>77</v>
@@ -8553,7 +8710,7 @@
         <v>77</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>284</v>
+        <v>431</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>78</v>
@@ -8565,13 +8722,13 @@
         <v>77</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>130</v>
+        <v>437</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>77</v>
@@ -8582,10 +8739,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>423</v>
+        <v>438</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>423</v>
+        <v>438</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8596,7 +8753,7 @@
         <v>78</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>77</v>
@@ -8608,16 +8765,18 @@
         <v>77</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>199</v>
+        <v>439</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>424</v>
+        <v>440</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>425</v>
+        <v>441</v>
       </c>
       <c r="N61" s="2"/>
-      <c r="O61" s="2"/>
+      <c r="O61" t="s" s="2">
+        <v>442</v>
+      </c>
       <c r="P61" t="s" s="2">
         <v>77</v>
       </c>
@@ -8641,13 +8800,13 @@
         <v>77</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>111</v>
+        <v>77</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>426</v>
+        <v>77</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>427</v>
+        <v>77</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>77</v>
@@ -8665,13 +8824,13 @@
         <v>77</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>423</v>
+        <v>438</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>77</v>
@@ -8683,7 +8842,7 @@
         <v>77</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>428</v>
+        <v>437</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>77</v>
@@ -8694,10 +8853,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>429</v>
+        <v>443</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>429</v>
+        <v>443</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8705,10 +8864,10 @@
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>77</v>
@@ -8720,13 +8879,13 @@
         <v>77</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>430</v>
+        <v>230</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>431</v>
+        <v>444</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>432</v>
+        <v>445</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -8753,13 +8912,13 @@
         <v>77</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>77</v>
+        <v>234</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>77</v>
+        <v>446</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>77</v>
+        <v>447</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>77</v>
@@ -8777,13 +8936,13 @@
         <v>77</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>429</v>
+        <v>443</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>77</v>
@@ -8795,7 +8954,7 @@
         <v>77</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>433</v>
+        <v>448</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>77</v>
@@ -8806,10 +8965,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>434</v>
+        <v>449</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>434</v>
+        <v>449</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -8832,20 +8991,16 @@
         <v>77</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>435</v>
+        <v>450</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>436</v>
+        <v>451</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="O63" t="s" s="2">
-        <v>439</v>
-      </c>
+        <v>452</v>
+      </c>
+      <c r="N63" s="2"/>
+      <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>77</v>
       </c>
@@ -8893,7 +9048,7 @@
         <v>77</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>434</v>
+        <v>449</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>78</v>
@@ -8908,24 +9063,24 @@
         <v>99</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>77</v>
+        <v>453</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>440</v>
+        <v>454</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>77</v>
+        <v>455</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>441</v>
+        <v>456</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>441</v>
+        <v>456</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -8948,17 +9103,15 @@
         <v>77</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>199</v>
+        <v>296</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>442</v>
+        <v>457</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>438</v>
-      </c>
+        <v>458</v>
+      </c>
+      <c r="N64" s="2"/>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
         <v>77</v>
@@ -8983,13 +9136,13 @@
         <v>77</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>203</v>
+        <v>77</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>444</v>
+        <v>77</v>
       </c>
       <c r="Z64" t="s" s="2">
-        <v>445</v>
+        <v>77</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>77</v>
@@ -9007,7 +9160,7 @@
         <v>77</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>441</v>
+        <v>456</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>78</v>
@@ -9025,12 +9178,808 @@
         <v>77</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>446</v>
+        <v>459</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN64" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="B65" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="C65" s="2"/>
+      <c r="D65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E65" s="2"/>
+      <c r="F65" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G65" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K65" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="L65" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="N65" s="2"/>
+      <c r="O65" s="2"/>
+      <c r="P65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q65" s="2"/>
+      <c r="R65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF65" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="AG65" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH65" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL65" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="AM65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN65" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="B66" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="C66" s="2"/>
+      <c r="D66" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="E66" s="2"/>
+      <c r="F66" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K66" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="L66" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="O66" s="2"/>
+      <c r="P66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q66" s="2"/>
+      <c r="R66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF66" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AK66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL66" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="AM66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN66" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="B67" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="C67" s="2"/>
+      <c r="D67" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="E67" s="2"/>
+      <c r="F67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I67" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="J67" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K67" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="L67" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="O67" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="P67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q67" s="2"/>
+      <c r="R67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF67" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AK67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL67" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="AM67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN67" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="B68" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="C68" s="2"/>
+      <c r="D68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E68" s="2"/>
+      <c r="F68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G68" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K68" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="L68" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="N68" s="2"/>
+      <c r="O68" s="2"/>
+      <c r="P68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q68" s="2"/>
+      <c r="R68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X68" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="Y68" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="Z68" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="AA68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF68" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="AG68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH68" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL68" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="AM68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN68" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="B69" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="C69" s="2"/>
+      <c r="D69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E69" s="2"/>
+      <c r="F69" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G69" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K69" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="L69" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="N69" s="2"/>
+      <c r="O69" s="2"/>
+      <c r="P69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q69" s="2"/>
+      <c r="R69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF69" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL69" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="AM69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN69" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="B70" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="C70" s="2"/>
+      <c r="D70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E70" s="2"/>
+      <c r="F70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K70" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="L70" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="O70" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="P70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q70" s="2"/>
+      <c r="R70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF70" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL70" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="AM70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN70" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="B71" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="C71" s="2"/>
+      <c r="D71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E71" s="2"/>
+      <c r="F71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K71" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="L71" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="N71" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="O71" s="2"/>
+      <c r="P71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q71" s="2"/>
+      <c r="R71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X71" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="Y71" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="Z71" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF71" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL71" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="AM71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN71" t="s" s="2">
         <v>77</v>
       </c>
     </row>

--- a/StructureDefinition-profile-Procedure.xlsx
+++ b/StructureDefinition-profile-Procedure.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2589" uniqueCount="489">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2373" uniqueCount="481">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T22:05:43.2824755-06:00</t>
+    <t>2026-02-17T14:42:26.8823642-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -463,7 +463,7 @@
   </si>
   <si>
     <t>Note that the target element context `Procedure.performed[x]` is a choice-type element and cannot directly hold extensions. The context is moved up to parent element `Procedure`.
-Element `Procedure.occurrence[x]` is mapped to FHIR R4 element `Procedure.performed[x]`.
+Element `Procedure.occurrence[x]` has is mapped to FHIR R4 element `Procedure.performed[x]`, but has no comparisons.
 Note that the target element context `Procedure.performed[x]` is a choice-type element and cannot directly hold extensions. The context is moved up to parent element `Procedure`.</t>
   </si>
   <si>
@@ -487,7 +487,7 @@
     <t>The date the occurrence of the procedure was first captured in the record regardless of Procedure.status (potentially after the occurrence of the event).</t>
   </si>
   <si>
-    <t>Element `Procedure.recorded` is will have a context of Procedure based on following the parent source element upwards and mapping to `Procedure`.</t>
+    <t>Element `Procedure.recorded` has a context of Procedure based on following the parent source element upwards and mapping to `Procedure`.</t>
   </si>
   <si>
     <t>Procedure.extension:reported</t>
@@ -506,7 +506,7 @@
     <t>Indicates if this record was captured as a secondary 'reported' record rather than as an original primary source-of-truth record.  It may also indicate the source of the report.</t>
   </si>
   <si>
-    <t>Element `Procedure.reported[x]` is will have a context of Procedure based on following the parent source element upwards and mapping to `Procedure`.</t>
+    <t>Element `Procedure.reported[x]` has a context of Procedure based on following the parent source element upwards and mapping to `Procedure`.</t>
   </si>
   <si>
     <t>Procedure.extension:reportedCanonical</t>
@@ -544,7 +544,7 @@
   </si>
   <si>
     <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `Procedure.focus` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `Procedure.focus` is will have a context of Procedure based on following the parent source element upwards and mapping to `Procedure`.</t>
+Element `Procedure.focus` has a context of Procedure based on following the parent source element upwards and mapping to `Procedure`.</t>
   </si>
   <si>
     <t>Procedure.extension:supportingInfo</t>
@@ -560,7 +560,7 @@
   </si>
   <si>
     <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `Procedure.supportingInfo` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `Procedure.supportingInfo` is will have a context of Procedure based on following the parent source element upwards and mapping to `Procedure`.</t>
+Element `Procedure.supportingInfo` has a context of Procedure based on following the parent source element upwards and mapping to `Procedure`.</t>
   </si>
   <si>
     <t>Procedure.modifierExtension</t>
@@ -984,23 +984,23 @@
     <t>Element.extension</t>
   </si>
   <si>
-    <t>Procedure.performer.extension:period</t>
-  </si>
-  <si>
-    <t>period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Procedure.performer.period|0.0.1-snapshot-3}
+    <t>Procedure.performer.extension:performer</t>
+  </si>
+  <si>
+    <t>performer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Procedure.performer|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
-    <t>Cross-version extension for Procedure.performer.period from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Time period during which the performer performed the procedure.</t>
-  </si>
-  <si>
-    <t>Element `Procedure.performer.period` is will have a context of Procedure.performer based on following the parent source element upwards and mapping to `Procedure`.</t>
+    <t>Cross-version extension for Procedure.performer from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Indicates who or what performed the procedure and how they were involved.</t>
+  </si>
+  <si>
+    <t>Element `Procedure.performer` has is mapped to FHIR R4 element `Procedure.performer`, but has no comparisons.</t>
   </si>
   <si>
     <t>Procedure.performer.modifierExtension</t>
@@ -1075,32 +1075,184 @@
     <t>ORC-19/PRT-5</t>
   </si>
   <si>
-    <t>Procedure.performer.actor.id</t>
-  </si>
-  <si>
-    <t>Procedure.performer.actor.extension</t>
+    <t>Procedure.performer.onBehalfOf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Organization|4.0.1)
+</t>
+  </si>
+  <si>
+    <t>Organization the device or practitioner was acting for</t>
+  </si>
+  <si>
+    <t>The organization the device or practitioner was acting on behalf of.</t>
+  </si>
+  <si>
+    <t>Practitioners and Devices can be associated with multiple organizations.  This element indicates which organization they were acting on behalf of when performing the action.</t>
+  </si>
+  <si>
+    <t>.scoper</t>
+  </si>
+  <si>
+    <t>Procedure.location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Location|4.0.1)
+</t>
+  </si>
+  <si>
+    <t>Where the procedure happened</t>
+  </si>
+  <si>
+    <t>The location where the procedure actually happened.  E.g. a newborn at home, a tracheostomy at a restaurant.</t>
+  </si>
+  <si>
+    <t>Ties a procedure to where the records are likely kept.</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=LOC].role[classCode=SDLOC]</t>
+  </si>
+  <si>
+    <t>FiveWs.where[x]</t>
+  </si>
+  <si>
+    <t>Procedure.reasonCode</t>
+  </si>
+  <si>
+    <t>Coded reason procedure performed</t>
+  </si>
+  <si>
+    <t>The coded reason why the procedure was performed. This may be a coded entity of some type, or may simply be present as text.</t>
+  </si>
+  <si>
+    <t>Use Procedure.reasonCode when a code sufficiently describes the reason.  Use Procedure.reasonReference when referencing a resource, which allows more information to be conveyed, such as onset date. Procedure.reasonCode and Procedure.reasonReference are not meant to be duplicative.  For a single reason, either Procedure.reasonCode or Procedure.reasonReference can be used.  Procedure.reasonCode may be a summary code, or Procedure.reasonReference may be used to reference a very precise definition of the reason using Condition | Observation | Procedure | DiagnosticReport | DocumentReference.  Both Procedure.reasonCode and Procedure.reasonReference can be used if they are describing different reasons for the procedure.</t>
+  </si>
+  <si>
+    <t>A code that identifies the reason a procedure is  required.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/procedure-reason|4.0.1</t>
+  </si>
+  <si>
+    <t>Event.reasonCode</t>
+  </si>
+  <si>
+    <t>.reasonCode</t>
+  </si>
+  <si>
+    <t>FiveWs.why[x]</t>
+  </si>
+  <si>
+    <t>Procedure.reasonReference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Condition|4.0.1|Observation|4.0.1|Procedure|4.0.1|DiagnosticReport|4.0.1|DocumentReference|4.0.1)
+</t>
+  </si>
+  <si>
+    <t>The justification that the procedure was performed</t>
+  </si>
+  <si>
+    <t>The justification of why the procedure was performed.</t>
+  </si>
+  <si>
+    <t>It is possible for a procedure to be a reason (such as C-Section) for another procedure (such as an epidural). Other examples include endoscopy for dilatation and biopsy (a combination of diagnostic and therapeutic use). 
+Use Procedure.reasonCode when a code sufficiently describes the reason.  Use Procedure.reasonReference when referencing a resource, which allows more information to be conveyed, such as onset date. Procedure.reasonCode and Procedure.reasonReference are not meant to be duplicative.  For a single reason, either Procedure.reasonCode or Procedure.reasonReference can be used.  Procedure.reasonCode may be a summary code, or Procedure.reasonReference may be used to reference a very precise definition of the reason using Condition | Observation | Procedure | DiagnosticReport | DocumentReference.  Both Procedure.reasonCode and Procedure.reasonReference can be used if they are describing different reasons for the procedure.</t>
+  </si>
+  <si>
+    <t>Event.reasonReference</t>
+  </si>
+  <si>
+    <t>Procedure.bodySite</t>
+  </si>
+  <si>
+    <t>Target body sites</t>
+  </si>
+  <si>
+    <t>Detailed and structured anatomical location information. Multiple locations are allowed - e.g. multiple punch biopsies of a lesion.</t>
+  </si>
+  <si>
+    <t>If the use case requires attributes from the BodySite resource (e.g. to identify and track separately) then use the standard extension [procedure-targetbodystructure](http://hl7.org/fhir/R4/extension-procedure-targetbodystructure.html).</t>
+  </si>
+  <si>
+    <t>Codes describing anatomical locations. May include laterality.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/body-site|4.0.1</t>
+  </si>
+  <si>
+    <t>.targetSiteCode</t>
+  </si>
+  <si>
+    <t>OBX-20</t>
+  </si>
+  <si>
+    <t>Procedure.outcome</t>
+  </si>
+  <si>
+    <t>The result of procedure</t>
+  </si>
+  <si>
+    <t>The outcome of the procedure - did it resolve the reasons for the procedure being performed?</t>
+  </si>
+  <si>
+    <t>If outcome contains narrative text only, it can be captured using the CodeableConcept.text.</t>
+  </si>
+  <si>
+    <t>An outcome of a procedure - whether it was resolved or otherwise.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/procedure-outcome|4.0.1</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode=OUT].target.text</t>
+  </si>
+  <si>
+    <t>Procedure.report</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(DiagnosticReport|4.0.1|DocumentReference|4.0.1|Composition|4.0.1)
+</t>
+  </si>
+  <si>
+    <t>Any report resulting from the procedure</t>
+  </si>
+  <si>
+    <t>This could be a histology result, pathology report, surgical report, etc.</t>
+  </si>
+  <si>
+    <t>There could potentially be multiple reports - e.g. if this was a procedure which took multiple biopsies resulting in a number of anatomical pathology reports.</t>
+  </si>
+  <si>
+    <t>.inboundRelationship[typeCode=SUBJ].source[classCode=OBS, moodCode=EVN]</t>
+  </si>
+  <si>
+    <t>Procedure.report.id</t>
+  </si>
+  <si>
+    <t>Procedure.report.extension</t>
   </si>
   <si>
     <t>Extensions are always sliced by (at least) url</t>
   </si>
   <si>
-    <t>Procedure.performer.actor.extension:actor</t>
-  </si>
-  <si>
-    <t>actor</t>
-  </si>
-  <si>
-    <t>Cross-version extension for Procedure.performer.actor from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/CareTeam,http://hl7.org/fhir/StructureDefinition/HealthcareService in FHIR R4</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `Procedure.performer.actor` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `Procedure.performer.actor` is mapped to FHIR R4 element `Procedure.performer.actor`.</t>
-  </si>
-  <si>
-    <t>Procedure.performer.actor.reference</t>
+    <t>Procedure.report.extension:report</t>
+  </si>
+  <si>
+    <t>report</t>
+  </si>
+  <si>
+    <t>Cross-version extension for Procedure.report from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/DocumentReference in FHIR R4</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `Procedure.report` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
+Element `Procedure.report` has is mapped to FHIR R4 element `Procedure.report`, but has no comparisons.</t>
+  </si>
+  <si>
+    <t>Procedure.report.reference</t>
   </si>
   <si>
     <t>Literal reference, Relative, internal or absolute URL</t>
@@ -1119,7 +1271,7 @@
 </t>
   </si>
   <si>
-    <t>Procedure.performer.actor.type</t>
+    <t>Procedure.report.type</t>
   </si>
   <si>
     <t>Type the reference refers to (e.g. "Patient")</t>
@@ -1144,7 +1296,7 @@
     <t>Reference.type</t>
   </si>
   <si>
-    <t>Procedure.performer.actor.identifier</t>
+    <t>Procedure.report.identifier</t>
   </si>
   <si>
     <t>Logical reference, when literal reference is not known</t>
@@ -1165,7 +1317,7 @@
     <t>.identifier</t>
   </si>
   <si>
-    <t>Procedure.performer.actor.display</t>
+    <t>Procedure.report.display</t>
   </si>
   <si>
     <t>Text alternative for the resource</t>
@@ -1178,192 +1330,6 @@
   </si>
   <si>
     <t>Reference.display</t>
-  </si>
-  <si>
-    <t>Procedure.performer.onBehalfOf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Organization|4.0.1)
-</t>
-  </si>
-  <si>
-    <t>Organization the device or practitioner was acting for</t>
-  </si>
-  <si>
-    <t>The organization the device or practitioner was acting on behalf of.</t>
-  </si>
-  <si>
-    <t>Practitioners and Devices can be associated with multiple organizations.  This element indicates which organization they were acting on behalf of when performing the action.</t>
-  </si>
-  <si>
-    <t>.scoper</t>
-  </si>
-  <si>
-    <t>Procedure.location</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Location|4.0.1)
-</t>
-  </si>
-  <si>
-    <t>Where the procedure happened</t>
-  </si>
-  <si>
-    <t>The location where the procedure actually happened.  E.g. a newborn at home, a tracheostomy at a restaurant.</t>
-  </si>
-  <si>
-    <t>Ties a procedure to where the records are likely kept.</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=LOC].role[classCode=SDLOC]</t>
-  </si>
-  <si>
-    <t>FiveWs.where[x]</t>
-  </si>
-  <si>
-    <t>Procedure.reasonCode</t>
-  </si>
-  <si>
-    <t>Coded reason procedure performed</t>
-  </si>
-  <si>
-    <t>The coded reason why the procedure was performed. This may be a coded entity of some type, or may simply be present as text.</t>
-  </si>
-  <si>
-    <t>Use Procedure.reasonCode when a code sufficiently describes the reason.  Use Procedure.reasonReference when referencing a resource, which allows more information to be conveyed, such as onset date. Procedure.reasonCode and Procedure.reasonReference are not meant to be duplicative.  For a single reason, either Procedure.reasonCode or Procedure.reasonReference can be used.  Procedure.reasonCode may be a summary code, or Procedure.reasonReference may be used to reference a very precise definition of the reason using Condition | Observation | Procedure | DiagnosticReport | DocumentReference.  Both Procedure.reasonCode and Procedure.reasonReference can be used if they are describing different reasons for the procedure.</t>
-  </si>
-  <si>
-    <t>A code that identifies the reason a procedure is  required.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/procedure-reason|4.0.1</t>
-  </si>
-  <si>
-    <t>Event.reasonCode</t>
-  </si>
-  <si>
-    <t>.reasonCode</t>
-  </si>
-  <si>
-    <t>FiveWs.why[x]</t>
-  </si>
-  <si>
-    <t>Procedure.reasonReference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Condition|4.0.1|Observation|4.0.1|Procedure|4.0.1|DiagnosticReport|4.0.1|DocumentReference|4.0.1)
-</t>
-  </si>
-  <si>
-    <t>The justification that the procedure was performed</t>
-  </si>
-  <si>
-    <t>The justification of why the procedure was performed.</t>
-  </si>
-  <si>
-    <t>It is possible for a procedure to be a reason (such as C-Section) for another procedure (such as an epidural). Other examples include endoscopy for dilatation and biopsy (a combination of diagnostic and therapeutic use). 
-Use Procedure.reasonCode when a code sufficiently describes the reason.  Use Procedure.reasonReference when referencing a resource, which allows more information to be conveyed, such as onset date. Procedure.reasonCode and Procedure.reasonReference are not meant to be duplicative.  For a single reason, either Procedure.reasonCode or Procedure.reasonReference can be used.  Procedure.reasonCode may be a summary code, or Procedure.reasonReference may be used to reference a very precise definition of the reason using Condition | Observation | Procedure | DiagnosticReport | DocumentReference.  Both Procedure.reasonCode and Procedure.reasonReference can be used if they are describing different reasons for the procedure.</t>
-  </si>
-  <si>
-    <t>Event.reasonReference</t>
-  </si>
-  <si>
-    <t>Procedure.bodySite</t>
-  </si>
-  <si>
-    <t>Target body sites</t>
-  </si>
-  <si>
-    <t>Detailed and structured anatomical location information. Multiple locations are allowed - e.g. multiple punch biopsies of a lesion.</t>
-  </si>
-  <si>
-    <t>If the use case requires attributes from the BodySite resource (e.g. to identify and track separately) then use the standard extension [procedure-targetbodystructure](http://hl7.org/fhir/R4/extension-procedure-targetbodystructure.html).</t>
-  </si>
-  <si>
-    <t>Codes describing anatomical locations. May include laterality.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/body-site|4.0.1</t>
-  </si>
-  <si>
-    <t>.targetSiteCode</t>
-  </si>
-  <si>
-    <t>OBX-20</t>
-  </si>
-  <si>
-    <t>Procedure.outcome</t>
-  </si>
-  <si>
-    <t>The result of procedure</t>
-  </si>
-  <si>
-    <t>The outcome of the procedure - did it resolve the reasons for the procedure being performed?</t>
-  </si>
-  <si>
-    <t>If outcome contains narrative text only, it can be captured using the CodeableConcept.text.</t>
-  </si>
-  <si>
-    <t>An outcome of a procedure - whether it was resolved or otherwise.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/procedure-outcome|4.0.1</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode=OUT].target.text</t>
-  </si>
-  <si>
-    <t>Procedure.report</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(DiagnosticReport|4.0.1|DocumentReference|4.0.1|Composition|4.0.1)
-</t>
-  </si>
-  <si>
-    <t>Any report resulting from the procedure</t>
-  </si>
-  <si>
-    <t>This could be a histology result, pathology report, surgical report, etc.</t>
-  </si>
-  <si>
-    <t>There could potentially be multiple reports - e.g. if this was a procedure which took multiple biopsies resulting in a number of anatomical pathology reports.</t>
-  </si>
-  <si>
-    <t>.inboundRelationship[typeCode=SUBJ].source[classCode=OBS, moodCode=EVN]</t>
-  </si>
-  <si>
-    <t>Procedure.report.id</t>
-  </si>
-  <si>
-    <t>Procedure.report.extension</t>
-  </si>
-  <si>
-    <t>Procedure.report.extension:report</t>
-  </si>
-  <si>
-    <t>report</t>
-  </si>
-  <si>
-    <t>Cross-version extension for Procedure.report from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/DocumentReference in FHIR R4</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `Procedure.report` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `Procedure.report` is mapped to FHIR R4 element `Procedure.report`.</t>
-  </si>
-  <si>
-    <t>Procedure.report.reference</t>
-  </si>
-  <si>
-    <t>Procedure.report.type</t>
-  </si>
-  <si>
-    <t>Procedure.report.identifier</t>
-  </si>
-  <si>
-    <t>Procedure.report.display</t>
   </si>
   <si>
     <t>Procedure.complication</t>
@@ -1461,10 +1427,20 @@
     <t>Procedure.focalDevice.extension</t>
   </si>
   <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+    <t>Procedure.focalDevice.extension:focalDevice</t>
+  </si>
+  <si>
+    <t>focalDevice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Procedure.focalDevice|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for Procedure.focalDevice from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Element `Procedure.focalDevice` has is mapped to FHIR R4 element `Procedure.focalDevice`, but has no comparisons.</t>
   </si>
   <si>
     <t>Procedure.focalDevice.modifierExtension</t>
@@ -1849,7 +1825,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN71"/>
+  <dimension ref="A1:AN65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1858,7 +1834,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="35.6953125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="37.0390625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="34.09375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="16.203125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
@@ -5791,7 +5767,7 @@
         <v>78</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>77</v>
@@ -6261,16 +6237,18 @@
         <v>77</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>302</v>
+        <v>339</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>303</v>
+        <v>340</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>304</v>
+        <v>341</v>
       </c>
       <c r="N39" s="2"/>
-      <c r="O39" s="2"/>
+      <c r="O39" t="s" s="2">
+        <v>342</v>
+      </c>
       <c r="P39" t="s" s="2">
         <v>77</v>
       </c>
@@ -6318,7 +6296,7 @@
         <v>77</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>305</v>
+        <v>338</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
@@ -6330,13 +6308,13 @@
         <v>77</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>306</v>
+        <v>343</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>77</v>
@@ -6347,10 +6325,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6358,11 +6336,11 @@
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G40" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G40" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="H40" t="s" s="2">
         <v>77</v>
       </c>
@@ -6370,19 +6348,21 @@
         <v>77</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>132</v>
+        <v>345</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>133</v>
+        <v>346</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>134</v>
+        <v>347</v>
       </c>
       <c r="N40" s="2"/>
-      <c r="O40" s="2"/>
+      <c r="O40" t="s" s="2">
+        <v>348</v>
+      </c>
       <c r="P40" t="s" s="2">
         <v>77</v>
       </c>
@@ -6418,40 +6398,40 @@
         <v>77</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>340</v>
+        <v>77</v>
       </c>
       <c r="AD40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>136</v>
+        <v>77</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>308</v>
+        <v>344</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>77</v>
+        <v>349</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>77</v>
+        <v>350</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>77</v>
@@ -6459,23 +6439,21 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>341</v>
+        <v>351</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="C41" t="s" s="2">
-        <v>342</v>
-      </c>
+        <v>351</v>
+      </c>
+      <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>77</v>
@@ -6484,19 +6462,19 @@
         <v>77</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>166</v>
+        <v>230</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>343</v>
+        <v>352</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>344</v>
+        <v>353</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -6522,13 +6500,13 @@
         <v>77</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>77</v>
+        <v>234</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>77</v>
+        <v>355</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>77</v>
+        <v>356</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>77</v>
@@ -6546,7 +6524,7 @@
         <v>77</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>308</v>
+        <v>351</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>78</v>
@@ -6558,16 +6536,16 @@
         <v>77</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>77</v>
+        <v>357</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>77</v>
+        <v>358</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>77</v>
+        <v>359</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>77</v>
@@ -6575,10 +6553,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6589,7 +6567,7 @@
         <v>78</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>77</v>
@@ -6601,16 +6579,16 @@
         <v>88</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>302</v>
+        <v>361</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>347</v>
+        <v>362</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>348</v>
+        <v>363</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>349</v>
+        <v>364</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -6660,28 +6638,28 @@
         <v>77</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>351</v>
+        <v>77</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>77</v>
+        <v>365</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>130</v>
+        <v>358</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>77</v>
+        <v>359</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>77</v>
@@ -6689,10 +6667,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>352</v>
+        <v>366</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>352</v>
+        <v>366</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6703,7 +6681,7 @@
         <v>78</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>77</v>
@@ -6715,16 +6693,16 @@
         <v>88</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>101</v>
+        <v>230</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>353</v>
+        <v>367</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>354</v>
+        <v>368</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>355</v>
+        <v>369</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -6750,13 +6728,13 @@
         <v>77</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>356</v>
+        <v>234</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>357</v>
+        <v>370</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>358</v>
+        <v>371</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>77</v>
@@ -6774,13 +6752,13 @@
         <v>77</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>77</v>
@@ -6792,21 +6770,21 @@
         <v>77</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>130</v>
+        <v>372</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>77</v>
+        <v>373</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>360</v>
+        <v>374</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>360</v>
+        <v>374</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6829,16 +6807,16 @@
         <v>88</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>183</v>
+        <v>230</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>361</v>
+        <v>375</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>362</v>
+        <v>376</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>363</v>
+        <v>377</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -6864,13 +6842,13 @@
         <v>77</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>77</v>
+        <v>234</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>77</v>
+        <v>378</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>77</v>
+        <v>379</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>77</v>
@@ -6888,7 +6866,7 @@
         <v>77</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>364</v>
+        <v>374</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
@@ -6906,7 +6884,7 @@
         <v>77</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>365</v>
+        <v>380</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>77</v>
@@ -6917,10 +6895,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>366</v>
+        <v>381</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>366</v>
+        <v>381</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6931,7 +6909,7 @@
         <v>78</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>77</v>
@@ -6940,19 +6918,19 @@
         <v>77</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>302</v>
+        <v>382</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>367</v>
+        <v>383</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>368</v>
+        <v>384</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>369</v>
+        <v>385</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -7002,13 +6980,13 @@
         <v>77</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>370</v>
+        <v>381</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>77</v>
@@ -7020,7 +6998,7 @@
         <v>77</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>130</v>
+        <v>386</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>77</v>
@@ -7031,10 +7009,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>371</v>
+        <v>387</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>371</v>
+        <v>387</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7057,18 +7035,16 @@
         <v>77</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>372</v>
+        <v>302</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>373</v>
+        <v>303</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>374</v>
+        <v>304</v>
       </c>
       <c r="N46" s="2"/>
-      <c r="O46" t="s" s="2">
-        <v>375</v>
-      </c>
+      <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>77</v>
       </c>
@@ -7116,7 +7092,7 @@
         <v>77</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>371</v>
+        <v>305</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>78</v>
@@ -7128,13 +7104,13 @@
         <v>77</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>376</v>
+        <v>306</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>77</v>
@@ -7145,10 +7121,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7159,7 +7135,7 @@
         <v>78</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>77</v>
@@ -7168,21 +7144,19 @@
         <v>77</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>378</v>
+        <v>132</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>379</v>
+        <v>133</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>380</v>
+        <v>134</v>
       </c>
       <c r="N47" s="2"/>
-      <c r="O47" t="s" s="2">
-        <v>381</v>
-      </c>
+      <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>77</v>
       </c>
@@ -7218,40 +7192,40 @@
         <v>77</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AC47" t="s" s="2">
-        <v>77</v>
+        <v>389</v>
       </c>
       <c r="AD47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>77</v>
+        <v>136</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>377</v>
+        <v>308</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>382</v>
+        <v>77</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>383</v>
+        <v>77</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>77</v>
@@ -7259,12 +7233,14 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="C48" s="2"/>
+        <v>388</v>
+      </c>
+      <c r="C48" t="s" s="2">
+        <v>391</v>
+      </c>
       <c r="D48" t="s" s="2">
         <v>77</v>
       </c>
@@ -7273,7 +7249,7 @@
         <v>78</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>77</v>
@@ -7282,19 +7258,19 @@
         <v>77</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>230</v>
+        <v>166</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -7320,13 +7296,13 @@
         <v>77</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>234</v>
+        <v>77</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>388</v>
+        <v>77</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>389</v>
+        <v>77</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>77</v>
@@ -7344,7 +7320,7 @@
         <v>77</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>384</v>
+        <v>308</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>78</v>
@@ -7356,16 +7332,16 @@
         <v>77</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>390</v>
+        <v>77</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>391</v>
+        <v>77</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>392</v>
+        <v>77</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>77</v>
@@ -7373,10 +7349,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7387,7 +7363,7 @@
         <v>78</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>77</v>
@@ -7399,16 +7375,16 @@
         <v>88</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>394</v>
+        <v>302</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -7458,28 +7434,28 @@
         <v>77</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>77</v>
+        <v>400</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>398</v>
+        <v>77</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>391</v>
+        <v>130</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>392</v>
+        <v>77</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>77</v>
@@ -7487,10 +7463,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7501,7 +7477,7 @@
         <v>78</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>77</v>
@@ -7513,16 +7489,16 @@
         <v>88</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>230</v>
+        <v>101</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -7548,13 +7524,13 @@
         <v>77</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>234</v>
+        <v>405</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>77</v>
@@ -7572,13 +7548,13 @@
         <v>77</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>399</v>
+        <v>408</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>77</v>
@@ -7590,21 +7566,21 @@
         <v>77</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>405</v>
+        <v>130</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>406</v>
+        <v>77</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7627,16 +7603,16 @@
         <v>88</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>230</v>
+        <v>183</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -7662,13 +7638,13 @@
         <v>77</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>234</v>
+        <v>77</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>411</v>
+        <v>77</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>412</v>
+        <v>77</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>77</v>
@@ -7686,7 +7662,7 @@
         <v>77</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>78</v>
@@ -7704,7 +7680,7 @@
         <v>77</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>77</v>
@@ -7715,10 +7691,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7729,7 +7705,7 @@
         <v>78</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>77</v>
@@ -7738,10 +7714,10 @@
         <v>77</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>415</v>
+        <v>302</v>
       </c>
       <c r="L52" t="s" s="2">
         <v>416</v>
@@ -7800,13 +7776,13 @@
         <v>77</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>77</v>
@@ -7818,7 +7794,7 @@
         <v>77</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>419</v>
+        <v>130</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>77</v>
@@ -7843,7 +7819,7 @@
         <v>78</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>77</v>
@@ -7855,15 +7831,17 @@
         <v>77</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>302</v>
+        <v>230</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>303</v>
+        <v>421</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="N53" s="2"/>
+        <v>422</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>423</v>
+      </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>77</v>
@@ -7888,13 +7866,13 @@
         <v>77</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>77</v>
+        <v>234</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>77</v>
+        <v>424</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>77</v>
+        <v>425</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>77</v>
@@ -7912,25 +7890,25 @@
         <v>77</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>305</v>
+        <v>420</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>306</v>
+        <v>426</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>77</v>
@@ -7941,10 +7919,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7967,16 +7945,18 @@
         <v>77</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>132</v>
+        <v>428</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>133</v>
+        <v>429</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>134</v>
+        <v>430</v>
       </c>
       <c r="N54" s="2"/>
-      <c r="O54" s="2"/>
+      <c r="O54" t="s" s="2">
+        <v>431</v>
+      </c>
       <c r="P54" t="s" s="2">
         <v>77</v>
       </c>
@@ -8012,19 +7992,19 @@
         <v>77</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AC54" t="s" s="2">
-        <v>340</v>
+        <v>77</v>
       </c>
       <c r="AD54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>136</v>
+        <v>77</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>308</v>
+        <v>427</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>78</v>
@@ -8036,13 +8016,13 @@
         <v>77</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>77</v>
+        <v>426</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>77</v>
@@ -8053,14 +8033,12 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="C55" t="s" s="2">
-        <v>423</v>
-      </c>
+        <v>432</v>
+      </c>
+      <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
         <v>77</v>
       </c>
@@ -8069,7 +8047,7 @@
         <v>78</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>77</v>
@@ -8081,17 +8059,15 @@
         <v>77</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>166</v>
+        <v>230</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>424</v>
+        <v>433</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>426</v>
-      </c>
+        <v>434</v>
+      </c>
+      <c r="N55" s="2"/>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>77</v>
@@ -8116,13 +8092,13 @@
         <v>77</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>77</v>
+        <v>234</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>77</v>
+        <v>435</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>77</v>
+        <v>436</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>77</v>
@@ -8140,7 +8116,7 @@
         <v>77</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>308</v>
+        <v>432</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>78</v>
@@ -8152,13 +8128,13 @@
         <v>77</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>77</v>
+        <v>437</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>77</v>
@@ -8169,10 +8145,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>427</v>
+        <v>438</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>427</v>
+        <v>438</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8183,7 +8159,7 @@
         <v>78</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>77</v>
@@ -8192,20 +8168,18 @@
         <v>77</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>302</v>
+        <v>439</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>347</v>
+        <v>440</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>349</v>
-      </c>
+        <v>441</v>
+      </c>
+      <c r="N56" s="2"/>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>77</v>
@@ -8254,39 +8228,39 @@
         <v>77</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>350</v>
+        <v>438</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>351</v>
+        <v>77</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>77</v>
+        <v>442</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>130</v>
+        <v>443</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>77</v>
+        <v>444</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>428</v>
+        <v>445</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>428</v>
+        <v>445</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8297,7 +8271,7 @@
         <v>78</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>77</v>
@@ -8306,20 +8280,18 @@
         <v>77</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>101</v>
+        <v>296</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>353</v>
+        <v>446</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>355</v>
-      </c>
+        <v>447</v>
+      </c>
+      <c r="N57" s="2"/>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>77</v>
@@ -8344,13 +8316,13 @@
         <v>77</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>356</v>
+        <v>77</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>357</v>
+        <v>77</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>358</v>
+        <v>77</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>77</v>
@@ -8368,13 +8340,13 @@
         <v>77</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>359</v>
+        <v>445</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>77</v>
@@ -8386,7 +8358,7 @@
         <v>77</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>130</v>
+        <v>448</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>77</v>
@@ -8397,10 +8369,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>429</v>
+        <v>449</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>429</v>
+        <v>449</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8420,20 +8392,18 @@
         <v>77</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>183</v>
+        <v>302</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>361</v>
+        <v>303</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>363</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="N58" s="2"/>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>77</v>
@@ -8482,7 +8452,7 @@
         <v>77</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>364</v>
+        <v>305</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>78</v>
@@ -8494,13 +8464,13 @@
         <v>77</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>365</v>
+        <v>306</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>77</v>
@@ -8511,10 +8481,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>430</v>
+        <v>450</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>430</v>
+        <v>450</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8525,7 +8495,7 @@
         <v>78</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>77</v>
@@ -8534,20 +8504,18 @@
         <v>77</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>302</v>
+        <v>132</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>367</v>
+        <v>133</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>369</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="N59" s="2"/>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>77</v>
@@ -8584,37 +8552,35 @@
         <v>77</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC59" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="AC59" s="2"/>
       <c r="AD59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>77</v>
+        <v>136</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>370</v>
+        <v>308</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>130</v>
+        <v>77</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>77</v>
@@ -8625,12 +8591,14 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>431</v>
+        <v>451</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="C60" s="2"/>
+        <v>450</v>
+      </c>
+      <c r="C60" t="s" s="2">
+        <v>452</v>
+      </c>
       <c r="D60" t="s" s="2">
         <v>77</v>
       </c>
@@ -8651,16 +8619,16 @@
         <v>77</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>230</v>
+        <v>453</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>432</v>
+        <v>454</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>433</v>
+        <v>447</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>434</v>
+        <v>455</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -8686,13 +8654,13 @@
         <v>77</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>234</v>
+        <v>77</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>435</v>
+        <v>77</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>436</v>
+        <v>77</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>77</v>
@@ -8710,7 +8678,7 @@
         <v>77</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>431</v>
+        <v>308</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>78</v>
@@ -8719,16 +8687,16 @@
         <v>79</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>77</v>
+        <v>145</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>437</v>
+        <v>77</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>77</v>
@@ -8739,14 +8707,14 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>438</v>
+        <v>456</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>438</v>
+        <v>456</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>77</v>
+        <v>316</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
@@ -8759,23 +8727,25 @@
         <v>77</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>439</v>
+        <v>132</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>440</v>
+        <v>317</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="N61" s="2"/>
+        <v>318</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>179</v>
+      </c>
       <c r="O61" t="s" s="2">
-        <v>442</v>
+        <v>180</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>77</v>
@@ -8824,7 +8794,7 @@
         <v>77</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>438</v>
+        <v>319</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>78</v>
@@ -8836,13 +8806,13 @@
         <v>77</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>437</v>
+        <v>130</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>77</v>
@@ -8853,10 +8823,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>443</v>
+        <v>457</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>443</v>
+        <v>457</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8867,7 +8837,7 @@
         <v>78</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>77</v>
@@ -8882,10 +8852,10 @@
         <v>230</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>444</v>
+        <v>458</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>445</v>
+        <v>459</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -8912,13 +8882,13 @@
         <v>77</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>234</v>
+        <v>111</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>446</v>
+        <v>460</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>447</v>
+        <v>461</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>77</v>
@@ -8936,13 +8906,13 @@
         <v>77</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>443</v>
+        <v>457</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>77</v>
@@ -8954,7 +8924,7 @@
         <v>77</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>448</v>
+        <v>462</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>77</v>
@@ -8965,10 +8935,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>449</v>
+        <v>463</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>449</v>
+        <v>463</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -8976,10 +8946,10 @@
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>77</v>
@@ -8991,13 +8961,13 @@
         <v>77</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>450</v>
+        <v>464</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>451</v>
+        <v>465</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>452</v>
+        <v>466</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -9048,13 +9018,13 @@
         <v>77</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>449</v>
+        <v>463</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>77</v>
@@ -9063,24 +9033,24 @@
         <v>99</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>453</v>
+        <v>77</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>454</v>
+        <v>467</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>455</v>
+        <v>77</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>456</v>
+        <v>468</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>456</v>
+        <v>468</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9103,16 +9073,20 @@
         <v>77</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>296</v>
+        <v>469</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>457</v>
+        <v>470</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="N64" s="2"/>
-      <c r="O64" s="2"/>
+        <v>471</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="O64" t="s" s="2">
+        <v>473</v>
+      </c>
       <c r="P64" t="s" s="2">
         <v>77</v>
       </c>
@@ -9160,7 +9134,7 @@
         <v>77</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>456</v>
+        <v>468</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>78</v>
@@ -9178,7 +9152,7 @@
         <v>77</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>459</v>
+        <v>474</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>77</v>
@@ -9189,10 +9163,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>460</v>
+        <v>475</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>460</v>
+        <v>475</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9203,7 +9177,7 @@
         <v>78</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>77</v>
@@ -9215,15 +9189,17 @@
         <v>77</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>302</v>
+        <v>230</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>303</v>
+        <v>476</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="N65" s="2"/>
+        <v>477</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>472</v>
+      </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
         <v>77</v>
@@ -9248,13 +9224,13 @@
         <v>77</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>77</v>
+        <v>234</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>77</v>
+        <v>478</v>
       </c>
       <c r="Z65" t="s" s="2">
-        <v>77</v>
+        <v>479</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>77</v>
@@ -9272,714 +9248,30 @@
         <v>77</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>305</v>
+        <v>475</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>306</v>
+        <v>480</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="B66" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="C66" s="2"/>
-      <c r="D66" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="E66" s="2"/>
-      <c r="F66" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G66" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H66" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I66" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J66" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K66" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="L66" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="O66" s="2"/>
-      <c r="P66" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q66" s="2"/>
-      <c r="R66" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S66" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T66" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U66" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V66" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W66" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X66" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y66" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z66" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA66" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB66" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC66" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD66" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE66" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF66" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="AG66" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH66" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI66" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ66" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AK66" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL66" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="AM66" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN66" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="B67" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="C67" s="2"/>
-      <c r="D67" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="E67" s="2"/>
-      <c r="F67" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I67" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="J67" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K67" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="L67" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="O67" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="P67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q67" s="2"/>
-      <c r="R67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF67" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="AG67" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ67" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AK67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL67" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="AM67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN67" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="B68" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="C68" s="2"/>
-      <c r="D68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E68" s="2"/>
-      <c r="F68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G68" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K68" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="L68" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="N68" s="2"/>
-      <c r="O68" s="2"/>
-      <c r="P68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q68" s="2"/>
-      <c r="R68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X68" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="Y68" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="Z68" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="AA68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF68" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="AG68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH68" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ68" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL68" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="AM68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN68" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="B69" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="C69" s="2"/>
-      <c r="D69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E69" s="2"/>
-      <c r="F69" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="G69" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K69" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="L69" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="N69" s="2"/>
-      <c r="O69" s="2"/>
-      <c r="P69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q69" s="2"/>
-      <c r="R69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF69" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="AG69" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH69" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ69" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL69" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="AM69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN69" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="B70" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="C70" s="2"/>
-      <c r="D70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E70" s="2"/>
-      <c r="F70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K70" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="L70" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="O70" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="P70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q70" s="2"/>
-      <c r="R70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF70" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="AG70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ70" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL70" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="AM70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN70" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="B71" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="C71" s="2"/>
-      <c r="D71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E71" s="2"/>
-      <c r="F71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K71" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="L71" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="O71" s="2"/>
-      <c r="P71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q71" s="2"/>
-      <c r="R71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X71" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="Y71" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="Z71" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="AA71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF71" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="AG71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ71" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL71" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="AM71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN71" t="s" s="2">
         <v>77</v>
       </c>
     </row>

--- a/StructureDefinition-profile-Procedure.xlsx
+++ b/StructureDefinition-profile-Procedure.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2373" uniqueCount="481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2624" uniqueCount="492">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T14:42:26.8823642-06:00</t>
+    <t>2026-02-20T11:59:20.9237553-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Procedure|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Procedure</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -452,7 +452,7 @@
     <t>occurrence</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Procedure.occurrence|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Procedure.occurrence}
 </t>
   </si>
   <si>
@@ -477,7 +477,7 @@
     <t>recorded</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Procedure.recorded|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Procedure.recorded}
 </t>
   </si>
   <si>
@@ -496,7 +496,7 @@
     <t>reported</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Procedure.reported|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Procedure.reported}
 </t>
   </si>
   <si>
@@ -533,7 +533,7 @@
     <t>focus</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {alternate-reference|5.2.0}
+    <t xml:space="preserve">Extension {alternate-reference}
 </t>
   </si>
   <si>
@@ -850,116 +850,7 @@
     <t>PID-3</t>
   </si>
   <si>
-    <t>Procedure.encounter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Encounter|4.0.1)
-</t>
-  </si>
-  <si>
-    <t>Encounter created as part of</t>
-  </si>
-  <si>
-    <t>The Encounter during which this Procedure was created or performed or to which the creation of this record is tightly associated.</t>
-  </si>
-  <si>
-    <t>This will typically be the encounter the event occurred within, but some activities may be initiated prior to or after the official completion of an encounter but still be tied to the context of the encounter.</t>
-  </si>
-  <si>
-    <t>Event.context</t>
-  </si>
-  <si>
-    <t>.inboundRelationship[typeCode=COMP].source[classCode=ENC, moodCode=EVN]</t>
-  </si>
-  <si>
-    <t>FiveWs.context</t>
-  </si>
-  <si>
-    <t>PV1-19</t>
-  </si>
-  <si>
-    <t>Procedure.performed[x]</t>
-  </si>
-  <si>
-    <t>dateTime
-PeriodstringAgeRange</t>
-  </si>
-  <si>
-    <t>When the procedure was performed</t>
-  </si>
-  <si>
-    <t>Estimated or actual date, date-time, period, or age when the procedure was performed.  Allows a period to support complex procedures that span more than one date, and also allows for the length of the procedure to be captured.</t>
-  </si>
-  <si>
-    <t>Age is generally used when the patient reports an age at which the procedure was performed. Range is generally used when the patient reports an age range when the procedure was performed, such as sometime between 20-25 years old.  dateTime supports a range of precision due to some procedures being reported as past procedures that might not have millisecond precision while other procedures performed and documented during the encounter might have more precise UTC timestamps with timezone.</t>
-  </si>
-  <si>
-    <t>Event.occurrence[x]</t>
-  </si>
-  <si>
-    <t>.effectiveTime</t>
-  </si>
-  <si>
-    <t>FiveWs.done[x]</t>
-  </si>
-  <si>
-    <t>OBR-7</t>
-  </si>
-  <si>
-    <t>Procedure.recorder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Patient|4.0.1|RelatedPerson|4.0.1|Practitioner|4.0.1|PractitionerRole|4.0.1)
-</t>
-  </si>
-  <si>
-    <t>Who recorded the procedure</t>
-  </si>
-  <si>
-    <t>Individual who recorded the record and takes responsibility for its content.</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=AUT].role</t>
-  </si>
-  <si>
-    <t>FiveWs.author</t>
-  </si>
-  <si>
-    <t>Procedure.asserter</t>
-  </si>
-  <si>
-    <t>Person who asserts this procedure</t>
-  </si>
-  <si>
-    <t>Individual who is making the procedure statement.</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=INF].role</t>
-  </si>
-  <si>
-    <t>FiveWs.source</t>
-  </si>
-  <si>
-    <t>Procedure.performer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BackboneElement
-</t>
-  </si>
-  <si>
-    <t>The people who performed the procedure</t>
-  </si>
-  <si>
-    <t>Limited to "real" people rather than equipment.</t>
-  </si>
-  <si>
-    <t>Event.performer</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=PRF]</t>
-  </si>
-  <si>
-    <t>Procedure.performer.id</t>
+    <t>Procedure.subject.id</t>
   </si>
   <si>
     <t xml:space="preserve">string
@@ -978,281 +869,32 @@
     <t>n/a</t>
   </si>
   <si>
-    <t>Procedure.performer.extension</t>
+    <t>Procedure.subject.extension</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
   </si>
   <si>
     <t>Element.extension</t>
   </si>
   <si>
-    <t>Procedure.performer.extension:performer</t>
-  </si>
-  <si>
-    <t>performer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Procedure.performer|0.0.1-snapshot-3}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for Procedure.performer from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Indicates who or what performed the procedure and how they were involved.</t>
-  </si>
-  <si>
-    <t>Element `Procedure.performer` has is mapped to FHIR R4 element `Procedure.performer`, but has no comparisons.</t>
-  </si>
-  <si>
-    <t>Procedure.performer.modifierExtension</t>
-  </si>
-  <si>
-    <t>extensions
-user contentmodifiers</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored even if unrecognized</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>BackboneElement.modifierExtension</t>
-  </si>
-  <si>
-    <t>Procedure.performer.function</t>
-  </si>
-  <si>
-    <t>Type of performance</t>
-  </si>
-  <si>
-    <t>Distinguishes the type of involvement of the performer in the procedure. For example, surgeon, anaesthetist, endoscopist.</t>
-  </si>
-  <si>
-    <t>Allows disambiguation of the types of involvement of different performers.</t>
-  </si>
-  <si>
-    <t>A code that identifies the role of a performer of the procedure.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/performer-role|4.0.1</t>
-  </si>
-  <si>
-    <t>Event.performer.function</t>
-  </si>
-  <si>
-    <t>.functionCode</t>
-  </si>
-  <si>
-    <t>Some combination of STF-18 / PRA-3 / PRT-4 / ROL-3 / ORC-12 / OBR-16 / PV1-7 / PV1-8 / PV1-9 / PV1-17 / OBX-25</t>
-  </si>
-  <si>
-    <t>Procedure.performer.actor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Practitioner|4.0.1|PractitionerRole|4.0.1|Organization|4.0.1|Patient|4.0.1|RelatedPerson|4.0.1|Device|4.0.1)
-</t>
-  </si>
-  <si>
-    <t>The reference to the practitioner</t>
-  </si>
-  <si>
-    <t>The practitioner who was involved in the procedure.</t>
-  </si>
-  <si>
-    <t>A reference to Device supports use cases, such as pacemakers.</t>
-  </si>
-  <si>
-    <t>Event.performer.actor</t>
-  </si>
-  <si>
-    <t>.role</t>
-  </si>
-  <si>
-    <t>FiveWs.actor</t>
-  </si>
-  <si>
-    <t>ORC-19/PRT-5</t>
-  </si>
-  <si>
-    <t>Procedure.performer.onBehalfOf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Organization|4.0.1)
-</t>
-  </si>
-  <si>
-    <t>Organization the device or practitioner was acting for</t>
-  </si>
-  <si>
-    <t>The organization the device or practitioner was acting on behalf of.</t>
-  </si>
-  <si>
-    <t>Practitioners and Devices can be associated with multiple organizations.  This element indicates which organization they were acting on behalf of when performing the action.</t>
-  </si>
-  <si>
-    <t>.scoper</t>
-  </si>
-  <si>
-    <t>Procedure.location</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Location|4.0.1)
-</t>
-  </si>
-  <si>
-    <t>Where the procedure happened</t>
-  </si>
-  <si>
-    <t>The location where the procedure actually happened.  E.g. a newborn at home, a tracheostomy at a restaurant.</t>
-  </si>
-  <si>
-    <t>Ties a procedure to where the records are likely kept.</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=LOC].role[classCode=SDLOC]</t>
-  </si>
-  <si>
-    <t>FiveWs.where[x]</t>
-  </si>
-  <si>
-    <t>Procedure.reasonCode</t>
-  </si>
-  <si>
-    <t>Coded reason procedure performed</t>
-  </si>
-  <si>
-    <t>The coded reason why the procedure was performed. This may be a coded entity of some type, or may simply be present as text.</t>
-  </si>
-  <si>
-    <t>Use Procedure.reasonCode when a code sufficiently describes the reason.  Use Procedure.reasonReference when referencing a resource, which allows more information to be conveyed, such as onset date. Procedure.reasonCode and Procedure.reasonReference are not meant to be duplicative.  For a single reason, either Procedure.reasonCode or Procedure.reasonReference can be used.  Procedure.reasonCode may be a summary code, or Procedure.reasonReference may be used to reference a very precise definition of the reason using Condition | Observation | Procedure | DiagnosticReport | DocumentReference.  Both Procedure.reasonCode and Procedure.reasonReference can be used if they are describing different reasons for the procedure.</t>
-  </si>
-  <si>
-    <t>A code that identifies the reason a procedure is  required.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/procedure-reason|4.0.1</t>
-  </si>
-  <si>
-    <t>Event.reasonCode</t>
-  </si>
-  <si>
-    <t>.reasonCode</t>
-  </si>
-  <si>
-    <t>FiveWs.why[x]</t>
-  </si>
-  <si>
-    <t>Procedure.reasonReference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Condition|4.0.1|Observation|4.0.1|Procedure|4.0.1|DiagnosticReport|4.0.1|DocumentReference|4.0.1)
-</t>
-  </si>
-  <si>
-    <t>The justification that the procedure was performed</t>
-  </si>
-  <si>
-    <t>The justification of why the procedure was performed.</t>
-  </si>
-  <si>
-    <t>It is possible for a procedure to be a reason (such as C-Section) for another procedure (such as an epidural). Other examples include endoscopy for dilatation and biopsy (a combination of diagnostic and therapeutic use). 
-Use Procedure.reasonCode when a code sufficiently describes the reason.  Use Procedure.reasonReference when referencing a resource, which allows more information to be conveyed, such as onset date. Procedure.reasonCode and Procedure.reasonReference are not meant to be duplicative.  For a single reason, either Procedure.reasonCode or Procedure.reasonReference can be used.  Procedure.reasonCode may be a summary code, or Procedure.reasonReference may be used to reference a very precise definition of the reason using Condition | Observation | Procedure | DiagnosticReport | DocumentReference.  Both Procedure.reasonCode and Procedure.reasonReference can be used if they are describing different reasons for the procedure.</t>
-  </si>
-  <si>
-    <t>Event.reasonReference</t>
-  </si>
-  <si>
-    <t>Procedure.bodySite</t>
-  </si>
-  <si>
-    <t>Target body sites</t>
-  </si>
-  <si>
-    <t>Detailed and structured anatomical location information. Multiple locations are allowed - e.g. multiple punch biopsies of a lesion.</t>
-  </si>
-  <si>
-    <t>If the use case requires attributes from the BodySite resource (e.g. to identify and track separately) then use the standard extension [procedure-targetbodystructure](http://hl7.org/fhir/R4/extension-procedure-targetbodystructure.html).</t>
-  </si>
-  <si>
-    <t>Codes describing anatomical locations. May include laterality.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/body-site|4.0.1</t>
-  </si>
-  <si>
-    <t>.targetSiteCode</t>
-  </si>
-  <si>
-    <t>OBX-20</t>
-  </si>
-  <si>
-    <t>Procedure.outcome</t>
-  </si>
-  <si>
-    <t>The result of procedure</t>
-  </si>
-  <si>
-    <t>The outcome of the procedure - did it resolve the reasons for the procedure being performed?</t>
-  </si>
-  <si>
-    <t>If outcome contains narrative text only, it can be captured using the CodeableConcept.text.</t>
-  </si>
-  <si>
-    <t>An outcome of a procedure - whether it was resolved or otherwise.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/procedure-outcome|4.0.1</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode=OUT].target.text</t>
-  </si>
-  <si>
-    <t>Procedure.report</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(DiagnosticReport|4.0.1|DocumentReference|4.0.1|Composition|4.0.1)
-</t>
-  </si>
-  <si>
-    <t>Any report resulting from the procedure</t>
-  </si>
-  <si>
-    <t>This could be a histology result, pathology report, surgical report, etc.</t>
-  </si>
-  <si>
-    <t>There could potentially be multiple reports - e.g. if this was a procedure which took multiple biopsies resulting in a number of anatomical pathology reports.</t>
-  </si>
-  <si>
-    <t>.inboundRelationship[typeCode=SUBJ].source[classCode=OBS, moodCode=EVN]</t>
-  </si>
-  <si>
-    <t>Procedure.report.id</t>
-  </si>
-  <si>
-    <t>Procedure.report.extension</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>Procedure.report.extension:report</t>
-  </si>
-  <si>
-    <t>report</t>
-  </si>
-  <si>
-    <t>Cross-version extension for Procedure.report from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/DocumentReference in FHIR R4</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `Procedure.report` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `Procedure.report` has is mapped to FHIR R4 element `Procedure.report`, but has no comparisons.</t>
-  </si>
-  <si>
-    <t>Procedure.report.reference</t>
+    <t>Procedure.subject.extension:subject</t>
+  </si>
+  <si>
+    <t>subject</t>
+  </si>
+  <si>
+    <t>Cross-version extension for Procedure.subject from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/Device,http://hl7.org/fhir/StructureDefinition/Location,http://hl7.org/fhir/StructureDefinition/Organization,http://hl7.org/fhir/StructureDefinition/Practitioner in FHIR R4</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `Procedure.subject` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
+Element `Procedure.subject` has is mapped to FHIR R4 element `Procedure.subject`, but has no comparisons.</t>
+  </si>
+  <si>
+    <t>Procedure.subject.reference</t>
   </si>
   <si>
     <t>Literal reference, Relative, internal or absolute URL</t>
@@ -1271,7 +913,7 @@
 </t>
   </si>
   <si>
-    <t>Procedure.report.type</t>
+    <t>Procedure.subject.type</t>
   </si>
   <si>
     <t>Type the reference refers to (e.g. "Patient")</t>
@@ -1296,7 +938,7 @@
     <t>Reference.type</t>
   </si>
   <si>
-    <t>Procedure.report.identifier</t>
+    <t>Procedure.subject.identifier</t>
   </si>
   <si>
     <t>Logical reference, when literal reference is not known</t>
@@ -1317,19 +959,411 @@
     <t>.identifier</t>
   </si>
   <si>
+    <t>Procedure.subject.display</t>
+  </si>
+  <si>
+    <t>Text alternative for the resource</t>
+  </si>
+  <si>
+    <t>Plain text narrative that identifies the resource in addition to the resource reference.</t>
+  </si>
+  <si>
+    <t>This is generally not the same as the Resource.text of the referenced resource.  The purpose is to identify what's being referenced, not to fully describe it.</t>
+  </si>
+  <si>
+    <t>Reference.display</t>
+  </si>
+  <si>
+    <t>Procedure.encounter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Encounter|4.0.1)
+</t>
+  </si>
+  <si>
+    <t>Encounter created as part of</t>
+  </si>
+  <si>
+    <t>The Encounter during which this Procedure was created or performed or to which the creation of this record is tightly associated.</t>
+  </si>
+  <si>
+    <t>This will typically be the encounter the event occurred within, but some activities may be initiated prior to or after the official completion of an encounter but still be tied to the context of the encounter.</t>
+  </si>
+  <si>
+    <t>Event.context</t>
+  </si>
+  <si>
+    <t>.inboundRelationship[typeCode=COMP].source[classCode=ENC, moodCode=EVN]</t>
+  </si>
+  <si>
+    <t>FiveWs.context</t>
+  </si>
+  <si>
+    <t>PV1-19</t>
+  </si>
+  <si>
+    <t>Procedure.performed[x]</t>
+  </si>
+  <si>
+    <t>dateTime
+PeriodstringAgeRange</t>
+  </si>
+  <si>
+    <t>When the procedure was performed</t>
+  </si>
+  <si>
+    <t>Estimated or actual date, date-time, period, or age when the procedure was performed.  Allows a period to support complex procedures that span more than one date, and also allows for the length of the procedure to be captured.</t>
+  </si>
+  <si>
+    <t>Age is generally used when the patient reports an age at which the procedure was performed. Range is generally used when the patient reports an age range when the procedure was performed, such as sometime between 20-25 years old.  dateTime supports a range of precision due to some procedures being reported as past procedures that might not have millisecond precision while other procedures performed and documented during the encounter might have more precise UTC timestamps with timezone.</t>
+  </si>
+  <si>
+    <t>Event.occurrence[x]</t>
+  </si>
+  <si>
+    <t>.effectiveTime</t>
+  </si>
+  <si>
+    <t>FiveWs.done[x]</t>
+  </si>
+  <si>
+    <t>OBR-7</t>
+  </si>
+  <si>
+    <t>Procedure.recorder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Patient|4.0.1|RelatedPerson|4.0.1|Practitioner|4.0.1|PractitionerRole|4.0.1)
+</t>
+  </si>
+  <si>
+    <t>Who recorded the procedure</t>
+  </si>
+  <si>
+    <t>Individual who recorded the record and takes responsibility for its content.</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=AUT].role</t>
+  </si>
+  <si>
+    <t>FiveWs.author</t>
+  </si>
+  <si>
+    <t>Procedure.asserter</t>
+  </si>
+  <si>
+    <t>Person who asserts this procedure</t>
+  </si>
+  <si>
+    <t>Individual who is making the procedure statement.</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=INF].role</t>
+  </si>
+  <si>
+    <t>FiveWs.source</t>
+  </si>
+  <si>
+    <t>Procedure.performer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BackboneElement
+</t>
+  </si>
+  <si>
+    <t>The people who performed the procedure</t>
+  </si>
+  <si>
+    <t>Limited to "real" people rather than equipment.</t>
+  </si>
+  <si>
+    <t>Event.performer</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=PRF]</t>
+  </si>
+  <si>
+    <t>Procedure.performer.id</t>
+  </si>
+  <si>
+    <t>Procedure.performer.extension</t>
+  </si>
+  <si>
+    <t>Procedure.performer.extension:performer</t>
+  </si>
+  <si>
+    <t>performer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Procedure.performer}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for Procedure.performer from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Indicates who or what performed the procedure and how they were involved.</t>
+  </si>
+  <si>
+    <t>Element `Procedure.performer` has is mapped to FHIR R4 element `Procedure.performer`, but has no comparisons.</t>
+  </si>
+  <si>
+    <t>Procedure.performer.modifierExtension</t>
+  </si>
+  <si>
+    <t>extensions
+user contentmodifiers</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored even if unrecognized</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>BackboneElement.modifierExtension</t>
+  </si>
+  <si>
+    <t>Procedure.performer.function</t>
+  </si>
+  <si>
+    <t>Type of performance</t>
+  </si>
+  <si>
+    <t>Distinguishes the type of involvement of the performer in the procedure. For example, surgeon, anaesthetist, endoscopist.</t>
+  </si>
+  <si>
+    <t>Allows disambiguation of the types of involvement of different performers.</t>
+  </si>
+  <si>
+    <t>A code that identifies the role of a performer of the procedure.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/performer-role|4.0.1</t>
+  </si>
+  <si>
+    <t>Event.performer.function</t>
+  </si>
+  <si>
+    <t>.functionCode</t>
+  </si>
+  <si>
+    <t>Some combination of STF-18 / PRA-3 / PRT-4 / ROL-3 / ORC-12 / OBR-16 / PV1-7 / PV1-8 / PV1-9 / PV1-17 / OBX-25</t>
+  </si>
+  <si>
+    <t>Procedure.performer.actor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Practitioner|4.0.1|PractitionerRole|4.0.1|Organization|4.0.1|Patient|4.0.1|RelatedPerson|4.0.1|Device|4.0.1)
+</t>
+  </si>
+  <si>
+    <t>The reference to the practitioner</t>
+  </si>
+  <si>
+    <t>The practitioner who was involved in the procedure.</t>
+  </si>
+  <si>
+    <t>A reference to Device supports use cases, such as pacemakers.</t>
+  </si>
+  <si>
+    <t>Event.performer.actor</t>
+  </si>
+  <si>
+    <t>.role</t>
+  </si>
+  <si>
+    <t>FiveWs.actor</t>
+  </si>
+  <si>
+    <t>ORC-19/PRT-5</t>
+  </si>
+  <si>
+    <t>Procedure.performer.onBehalfOf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Organization|4.0.1)
+</t>
+  </si>
+  <si>
+    <t>Organization the device or practitioner was acting for</t>
+  </si>
+  <si>
+    <t>The organization the device or practitioner was acting on behalf of.</t>
+  </si>
+  <si>
+    <t>Practitioners and Devices can be associated with multiple organizations.  This element indicates which organization they were acting on behalf of when performing the action.</t>
+  </si>
+  <si>
+    <t>.scoper</t>
+  </si>
+  <si>
+    <t>Procedure.location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Location|4.0.1)
+</t>
+  </si>
+  <si>
+    <t>Where the procedure happened</t>
+  </si>
+  <si>
+    <t>The location where the procedure actually happened.  E.g. a newborn at home, a tracheostomy at a restaurant.</t>
+  </si>
+  <si>
+    <t>Ties a procedure to where the records are likely kept.</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=LOC].role[classCode=SDLOC]</t>
+  </si>
+  <si>
+    <t>FiveWs.where[x]</t>
+  </si>
+  <si>
+    <t>Procedure.reasonCode</t>
+  </si>
+  <si>
+    <t>Coded reason procedure performed</t>
+  </si>
+  <si>
+    <t>The coded reason why the procedure was performed. This may be a coded entity of some type, or may simply be present as text.</t>
+  </si>
+  <si>
+    <t>Use Procedure.reasonCode when a code sufficiently describes the reason.  Use Procedure.reasonReference when referencing a resource, which allows more information to be conveyed, such as onset date. Procedure.reasonCode and Procedure.reasonReference are not meant to be duplicative.  For a single reason, either Procedure.reasonCode or Procedure.reasonReference can be used.  Procedure.reasonCode may be a summary code, or Procedure.reasonReference may be used to reference a very precise definition of the reason using Condition | Observation | Procedure | DiagnosticReport | DocumentReference.  Both Procedure.reasonCode and Procedure.reasonReference can be used if they are describing different reasons for the procedure.</t>
+  </si>
+  <si>
+    <t>A code that identifies the reason a procedure is  required.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/procedure-reason|4.0.1</t>
+  </si>
+  <si>
+    <t>Event.reasonCode</t>
+  </si>
+  <si>
+    <t>.reasonCode</t>
+  </si>
+  <si>
+    <t>FiveWs.why[x]</t>
+  </si>
+  <si>
+    <t>Procedure.reasonReference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Condition|4.0.1|Observation|4.0.1|Procedure|4.0.1|DiagnosticReport|4.0.1|DocumentReference|4.0.1)
+</t>
+  </si>
+  <si>
+    <t>The justification that the procedure was performed</t>
+  </si>
+  <si>
+    <t>The justification of why the procedure was performed.</t>
+  </si>
+  <si>
+    <t>It is possible for a procedure to be a reason (such as C-Section) for another procedure (such as an epidural). Other examples include endoscopy for dilatation and biopsy (a combination of diagnostic and therapeutic use). 
+Use Procedure.reasonCode when a code sufficiently describes the reason.  Use Procedure.reasonReference when referencing a resource, which allows more information to be conveyed, such as onset date. Procedure.reasonCode and Procedure.reasonReference are not meant to be duplicative.  For a single reason, either Procedure.reasonCode or Procedure.reasonReference can be used.  Procedure.reasonCode may be a summary code, or Procedure.reasonReference may be used to reference a very precise definition of the reason using Condition | Observation | Procedure | DiagnosticReport | DocumentReference.  Both Procedure.reasonCode and Procedure.reasonReference can be used if they are describing different reasons for the procedure.</t>
+  </si>
+  <si>
+    <t>Event.reasonReference</t>
+  </si>
+  <si>
+    <t>Procedure.bodySite</t>
+  </si>
+  <si>
+    <t>Target body sites</t>
+  </si>
+  <si>
+    <t>Detailed and structured anatomical location information. Multiple locations are allowed - e.g. multiple punch biopsies of a lesion.</t>
+  </si>
+  <si>
+    <t>If the use case requires attributes from the BodySite resource (e.g. to identify and track separately) then use the standard extension [procedure-targetbodystructure](http://hl7.org/fhir/R4/extension-procedure-targetbodystructure.html).</t>
+  </si>
+  <si>
+    <t>Codes describing anatomical locations. May include laterality.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/body-site|4.0.1</t>
+  </si>
+  <si>
+    <t>.targetSiteCode</t>
+  </si>
+  <si>
+    <t>OBX-20</t>
+  </si>
+  <si>
+    <t>Procedure.outcome</t>
+  </si>
+  <si>
+    <t>The result of procedure</t>
+  </si>
+  <si>
+    <t>The outcome of the procedure - did it resolve the reasons for the procedure being performed?</t>
+  </si>
+  <si>
+    <t>If outcome contains narrative text only, it can be captured using the CodeableConcept.text.</t>
+  </si>
+  <si>
+    <t>An outcome of a procedure - whether it was resolved or otherwise.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/procedure-outcome|4.0.1</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode=OUT].target.text</t>
+  </si>
+  <si>
+    <t>Procedure.report</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(DiagnosticReport|4.0.1|DocumentReference|4.0.1|Composition|4.0.1)
+</t>
+  </si>
+  <si>
+    <t>Any report resulting from the procedure</t>
+  </si>
+  <si>
+    <t>This could be a histology result, pathology report, surgical report, etc.</t>
+  </si>
+  <si>
+    <t>There could potentially be multiple reports - e.g. if this was a procedure which took multiple biopsies resulting in a number of anatomical pathology reports.</t>
+  </si>
+  <si>
+    <t>.inboundRelationship[typeCode=SUBJ].source[classCode=OBS, moodCode=EVN]</t>
+  </si>
+  <si>
+    <t>Procedure.report.id</t>
+  </si>
+  <si>
+    <t>Procedure.report.extension</t>
+  </si>
+  <si>
+    <t>Procedure.report.extension:report</t>
+  </si>
+  <si>
+    <t>report</t>
+  </si>
+  <si>
+    <t>Cross-version extension for Procedure.report from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/DocumentReference in FHIR R4</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `Procedure.report` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
+Element `Procedure.report` has is mapped to FHIR R4 element `Procedure.report`, but has no comparisons.</t>
+  </si>
+  <si>
+    <t>Procedure.report.reference</t>
+  </si>
+  <si>
+    <t>Procedure.report.type</t>
+  </si>
+  <si>
+    <t>Procedure.report.identifier</t>
+  </si>
+  <si>
     <t>Procedure.report.display</t>
-  </si>
-  <si>
-    <t>Text alternative for the resource</t>
-  </si>
-  <si>
-    <t>Plain text narrative that identifies the resource in addition to the resource reference.</t>
-  </si>
-  <si>
-    <t>This is generally not the same as the Resource.text of the referenced resource.  The purpose is to identify what's being referenced, not to fully describe it.</t>
-  </si>
-  <si>
-    <t>Reference.display</t>
   </si>
   <si>
     <t>Procedure.complication</t>
@@ -1433,7 +1467,7 @@
     <t>focalDevice</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Procedure.focalDevice|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Procedure.focalDevice}
 </t>
   </si>
   <si>
@@ -1825,7 +1859,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN65"/>
+  <dimension ref="A1:AN72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -4988,7 +5022,7 @@
         <v>77</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K28" t="s" s="2">
         <v>267</v>
@@ -4999,9 +5033,7 @@
       <c r="M28" t="s" s="2">
         <v>269</v>
       </c>
-      <c r="N28" t="s" s="2">
-        <v>270</v>
-      </c>
+      <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>77</v>
@@ -5050,7 +5082,7 @@
         <v>77</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>78</v>
@@ -5062,27 +5094,27 @@
         <v>77</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="AK28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL28" t="s" s="2">
         <v>271</v>
       </c>
-      <c r="AL28" t="s" s="2">
-        <v>272</v>
-      </c>
       <c r="AM28" t="s" s="2">
-        <v>273</v>
+        <v>77</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>274</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5090,10 +5122,10 @@
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>77</v>
@@ -5102,20 +5134,18 @@
         <v>77</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>276</v>
+        <v>132</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>277</v>
+        <v>133</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>279</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>77</v>
@@ -5152,59 +5182,61 @@
         <v>77</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>77</v>
+        <v>273</v>
       </c>
       <c r="AD29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>77</v>
+        <v>136</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>280</v>
+        <v>77</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>281</v>
+        <v>77</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>282</v>
+        <v>77</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>283</v>
+        <v>77</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="C30" s="2"/>
+        <v>272</v>
+      </c>
+      <c r="C30" t="s" s="2">
+        <v>276</v>
+      </c>
       <c r="D30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>87</v>
@@ -5216,18 +5248,20 @@
         <v>77</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>285</v>
+        <v>166</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="N30" s="2"/>
+        <v>278</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>279</v>
+      </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>77</v>
@@ -5276,28 +5310,28 @@
         <v>77</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>288</v>
+        <v>77</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>289</v>
+        <v>77</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>77</v>
@@ -5305,10 +5339,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5331,15 +5365,17 @@
         <v>88</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>285</v>
+        <v>267</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="N31" s="2"/>
+        <v>282</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>283</v>
+      </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>77</v>
@@ -5388,7 +5424,7 @@
         <v>77</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
@@ -5397,7 +5433,7 @@
         <v>87</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>77</v>
+        <v>285</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>99</v>
@@ -5406,10 +5442,10 @@
         <v>77</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>293</v>
+        <v>130</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>294</v>
+        <v>77</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>77</v>
@@ -5417,10 +5453,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5431,7 +5467,7 @@
         <v>78</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>77</v>
@@ -5443,15 +5479,17 @@
         <v>88</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>296</v>
+        <v>101</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="N32" s="2"/>
+        <v>288</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>289</v>
+      </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>77</v>
@@ -5476,13 +5514,13 @@
         <v>77</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>77</v>
+        <v>290</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>77</v>
+        <v>291</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>77</v>
+        <v>292</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>77</v>
@@ -5500,13 +5538,13 @@
         <v>77</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>77</v>
@@ -5515,10 +5553,10 @@
         <v>99</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>299</v>
+        <v>77</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>300</v>
+        <v>130</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>77</v>
@@ -5529,10 +5567,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5552,18 +5590,20 @@
         <v>77</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>302</v>
+        <v>183</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="N33" s="2"/>
+        <v>296</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>297</v>
+      </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>77</v>
@@ -5612,7 +5652,7 @@
         <v>77</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>78</v>
@@ -5624,13 +5664,13 @@
         <v>77</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>77</v>
@@ -5641,10 +5681,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5655,7 +5695,7 @@
         <v>78</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>77</v>
@@ -5664,18 +5704,20 @@
         <v>77</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>132</v>
+        <v>267</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>133</v>
+        <v>301</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="N34" s="2"/>
+        <v>302</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>303</v>
+      </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>77</v>
@@ -5712,35 +5754,37 @@
         <v>77</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AC34" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AC34" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AD34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>136</v>
+        <v>77</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>77</v>
+        <v>130</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>77</v>
@@ -5751,14 +5795,12 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="C35" t="s" s="2">
-        <v>310</v>
-      </c>
+        <v>305</v>
+      </c>
+      <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
         <v>77</v>
       </c>
@@ -5767,7 +5809,7 @@
         <v>78</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>77</v>
@@ -5776,19 +5818,19 @@
         <v>77</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -5838,75 +5880,73 @@
         <v>77</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>145</v>
+        <v>77</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>77</v>
+        <v>310</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>77</v>
+        <v>311</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>77</v>
+        <v>312</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>77</v>
+        <v>313</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>316</v>
+        <v>77</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="J36" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>132</v>
+        <v>315</v>
       </c>
       <c r="L36" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="M36" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="M36" t="s" s="2">
+      <c r="N36" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="N36" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="O36" t="s" s="2">
-        <v>180</v>
-      </c>
+      <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>77</v>
       </c>
@@ -5954,39 +5994,39 @@
         <v>77</v>
       </c>
       <c r="AF36" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="AG36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH36" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK36" t="s" s="2">
         <v>319</v>
       </c>
-      <c r="AG36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH36" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ36" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AK36" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="AL36" t="s" s="2">
-        <v>130</v>
+        <v>320</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>77</v>
+        <v>321</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>77</v>
+        <v>322</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6009,18 +6049,16 @@
         <v>88</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>230</v>
+        <v>324</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="N37" s="2"/>
-      <c r="O37" t="s" s="2">
-        <v>323</v>
-      </c>
+      <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>77</v>
       </c>
@@ -6044,13 +6082,13 @@
         <v>77</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>234</v>
+        <v>77</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>324</v>
+        <v>77</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>325</v>
+        <v>77</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>77</v>
@@ -6068,7 +6106,7 @@
         <v>77</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
@@ -6083,16 +6121,16 @@
         <v>99</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>326</v>
+        <v>77</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>327</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>77</v>
+        <v>328</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>328</v>
+        <v>77</v>
       </c>
     </row>
     <row r="38">
@@ -6108,7 +6146,7 @@
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>87</v>
@@ -6123,18 +6161,16 @@
         <v>88</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>330</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="M38" t="s" s="2">
         <v>331</v>
       </c>
-      <c r="M38" t="s" s="2">
-        <v>332</v>
-      </c>
       <c r="N38" s="2"/>
-      <c r="O38" t="s" s="2">
-        <v>333</v>
-      </c>
+      <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>77</v>
       </c>
@@ -6185,7 +6221,7 @@
         <v>329</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>87</v>
@@ -6197,24 +6233,24 @@
         <v>99</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>334</v>
+        <v>77</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>337</v>
+        <v>77</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6225,7 +6261,7 @@
         <v>78</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>77</v>
@@ -6234,21 +6270,19 @@
         <v>77</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="N39" s="2"/>
-      <c r="O39" t="s" s="2">
-        <v>342</v>
-      </c>
+      <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>77</v>
       </c>
@@ -6296,13 +6330,13 @@
         <v>77</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>77</v>
@@ -6311,10 +6345,10 @@
         <v>99</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>77</v>
+        <v>338</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>77</v>
@@ -6325,10 +6359,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6348,21 +6382,19 @@
         <v>77</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>345</v>
+        <v>267</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>346</v>
+        <v>268</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>347</v>
+        <v>269</v>
       </c>
       <c r="N40" s="2"/>
-      <c r="O40" t="s" s="2">
-        <v>348</v>
-      </c>
+      <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>77</v>
       </c>
@@ -6410,7 +6442,7 @@
         <v>77</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>344</v>
+        <v>270</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>78</v>
@@ -6422,16 +6454,16 @@
         <v>77</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>349</v>
+        <v>271</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>350</v>
+        <v>77</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>77</v>
@@ -6439,10 +6471,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6462,20 +6494,18 @@
         <v>77</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>230</v>
+        <v>132</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>352</v>
+        <v>133</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>354</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="N41" s="2"/>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>77</v>
@@ -6500,31 +6530,29 @@
         <v>77</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>234</v>
+        <v>77</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>355</v>
+        <v>77</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>356</v>
+        <v>77</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC41" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="AC41" s="2"/>
       <c r="AD41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>77</v>
+        <v>136</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>351</v>
+        <v>274</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>78</v>
@@ -6536,16 +6564,16 @@
         <v>77</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>357</v>
+        <v>77</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>358</v>
+        <v>77</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>359</v>
+        <v>77</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>77</v>
@@ -6553,12 +6581,14 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>360</v>
+        <v>342</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="C42" s="2"/>
+        <v>341</v>
+      </c>
+      <c r="C42" t="s" s="2">
+        <v>343</v>
+      </c>
       <c r="D42" t="s" s="2">
         <v>77</v>
       </c>
@@ -6576,19 +6606,19 @@
         <v>77</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>361</v>
+        <v>344</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>362</v>
+        <v>345</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>363</v>
+        <v>346</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>364</v>
+        <v>347</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -6638,7 +6668,7 @@
         <v>77</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>360</v>
+        <v>274</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
@@ -6647,19 +6677,19 @@
         <v>79</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>77</v>
+        <v>145</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>365</v>
+        <v>77</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>358</v>
+        <v>77</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>359</v>
+        <v>77</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>77</v>
@@ -6667,14 +6697,14 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>366</v>
+        <v>348</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>366</v>
+        <v>348</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>77</v>
+        <v>349</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
@@ -6687,24 +6717,26 @@
         <v>77</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="J43" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>230</v>
+        <v>132</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>367</v>
+        <v>350</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>368</v>
+        <v>351</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="O43" s="2"/>
+        <v>179</v>
+      </c>
+      <c r="O43" t="s" s="2">
+        <v>180</v>
+      </c>
       <c r="P43" t="s" s="2">
         <v>77</v>
       </c>
@@ -6728,13 +6760,13 @@
         <v>77</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>234</v>
+        <v>77</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>370</v>
+        <v>77</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>371</v>
+        <v>77</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>77</v>
@@ -6752,7 +6784,7 @@
         <v>77</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>78</v>
@@ -6764,27 +6796,27 @@
         <v>77</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>372</v>
+        <v>130</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>373</v>
+        <v>77</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>374</v>
+        <v>353</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>374</v>
+        <v>353</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6810,15 +6842,15 @@
         <v>230</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>375</v>
+        <v>354</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="O44" s="2"/>
+        <v>355</v>
+      </c>
+      <c r="N44" s="2"/>
+      <c r="O44" t="s" s="2">
+        <v>356</v>
+      </c>
       <c r="P44" t="s" s="2">
         <v>77</v>
       </c>
@@ -6845,10 +6877,10 @@
         <v>234</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>378</v>
+        <v>357</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>379</v>
+        <v>358</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>77</v>
@@ -6866,7 +6898,7 @@
         <v>77</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>374</v>
+        <v>353</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
@@ -6881,24 +6913,24 @@
         <v>99</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>77</v>
+        <v>359</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>380</v>
+        <v>360</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>77</v>
+        <v>361</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>381</v>
+        <v>362</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>381</v>
+        <v>362</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6906,10 +6938,10 @@
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>77</v>
@@ -6918,21 +6950,21 @@
         <v>77</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>382</v>
+        <v>363</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>383</v>
+        <v>364</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="O45" s="2"/>
+        <v>365</v>
+      </c>
+      <c r="N45" s="2"/>
+      <c r="O45" t="s" s="2">
+        <v>366</v>
+      </c>
       <c r="P45" t="s" s="2">
         <v>77</v>
       </c>
@@ -6980,13 +7012,13 @@
         <v>77</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>381</v>
+        <v>362</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>77</v>
@@ -6995,24 +7027,24 @@
         <v>99</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>77</v>
+        <v>367</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>386</v>
+        <v>368</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>77</v>
+        <v>369</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>77</v>
+        <v>370</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>387</v>
+        <v>371</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>387</v>
+        <v>371</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7035,16 +7067,18 @@
         <v>77</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>302</v>
+        <v>372</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>303</v>
+        <v>373</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>304</v>
+        <v>374</v>
       </c>
       <c r="N46" s="2"/>
-      <c r="O46" s="2"/>
+      <c r="O46" t="s" s="2">
+        <v>375</v>
+      </c>
       <c r="P46" t="s" s="2">
         <v>77</v>
       </c>
@@ -7092,7 +7126,7 @@
         <v>77</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>305</v>
+        <v>371</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>78</v>
@@ -7104,13 +7138,13 @@
         <v>77</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>306</v>
+        <v>376</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>77</v>
@@ -7121,10 +7155,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>388</v>
+        <v>377</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>388</v>
+        <v>377</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7135,7 +7169,7 @@
         <v>78</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>77</v>
@@ -7144,19 +7178,21 @@
         <v>77</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>132</v>
+        <v>378</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>133</v>
+        <v>379</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>134</v>
+        <v>380</v>
       </c>
       <c r="N47" s="2"/>
-      <c r="O47" s="2"/>
+      <c r="O47" t="s" s="2">
+        <v>381</v>
+      </c>
       <c r="P47" t="s" s="2">
         <v>77</v>
       </c>
@@ -7192,40 +7228,40 @@
         <v>77</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AC47" t="s" s="2">
-        <v>389</v>
+        <v>77</v>
       </c>
       <c r="AD47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>136</v>
+        <v>77</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>308</v>
+        <v>377</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>77</v>
+        <v>382</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>77</v>
+        <v>383</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>77</v>
@@ -7233,14 +7269,12 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="C48" t="s" s="2">
-        <v>391</v>
-      </c>
+        <v>384</v>
+      </c>
+      <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
         <v>77</v>
       </c>
@@ -7249,7 +7283,7 @@
         <v>78</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>77</v>
@@ -7258,19 +7292,19 @@
         <v>77</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>166</v>
+        <v>230</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -7296,13 +7330,13 @@
         <v>77</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>77</v>
+        <v>234</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>77</v>
+        <v>388</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>77</v>
+        <v>389</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>77</v>
@@ -7320,7 +7354,7 @@
         <v>77</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>308</v>
+        <v>384</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>78</v>
@@ -7332,16 +7366,16 @@
         <v>77</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>77</v>
+        <v>390</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>77</v>
+        <v>391</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>77</v>
+        <v>392</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>77</v>
@@ -7349,10 +7383,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7363,7 +7397,7 @@
         <v>78</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>77</v>
@@ -7375,16 +7409,16 @@
         <v>88</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>302</v>
+        <v>394</v>
       </c>
       <c r="L49" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="M49" t="s" s="2">
         <v>396</v>
       </c>
-      <c r="M49" t="s" s="2">
+      <c r="N49" t="s" s="2">
         <v>397</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>398</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -7434,28 +7468,28 @@
         <v>77</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>400</v>
+        <v>77</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>77</v>
+        <v>398</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>130</v>
+        <v>391</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>77</v>
+        <v>392</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>77</v>
@@ -7463,10 +7497,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7477,7 +7511,7 @@
         <v>78</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>77</v>
@@ -7489,16 +7523,16 @@
         <v>88</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>101</v>
+        <v>230</v>
       </c>
       <c r="L50" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="N50" t="s" s="2">
         <v>402</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>404</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -7524,13 +7558,13 @@
         <v>77</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>405</v>
+        <v>234</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>77</v>
@@ -7548,13 +7582,13 @@
         <v>77</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>77</v>
@@ -7566,21 +7600,21 @@
         <v>77</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>130</v>
+        <v>405</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>77</v>
+        <v>406</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7603,16 +7637,16 @@
         <v>88</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>183</v>
+        <v>230</v>
       </c>
       <c r="L51" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="N51" t="s" s="2">
         <v>410</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>412</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -7638,13 +7672,13 @@
         <v>77</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>77</v>
+        <v>234</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>77</v>
+        <v>411</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>77</v>
+        <v>412</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>77</v>
@@ -7662,7 +7696,7 @@
         <v>77</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>78</v>
@@ -7680,7 +7714,7 @@
         <v>77</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>77</v>
@@ -7691,10 +7725,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7705,7 +7739,7 @@
         <v>78</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>77</v>
@@ -7714,10 +7748,10 @@
         <v>77</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>302</v>
+        <v>415</v>
       </c>
       <c r="L52" t="s" s="2">
         <v>416</v>
@@ -7776,13 +7810,13 @@
         <v>77</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>77</v>
@@ -7794,7 +7828,7 @@
         <v>77</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>130</v>
+        <v>419</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>77</v>
@@ -7819,7 +7853,7 @@
         <v>78</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>77</v>
@@ -7831,17 +7865,15 @@
         <v>77</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>230</v>
+        <v>267</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>421</v>
+        <v>268</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>423</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="N53" s="2"/>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>77</v>
@@ -7866,13 +7898,13 @@
         <v>77</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>234</v>
+        <v>77</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>424</v>
+        <v>77</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>425</v>
+        <v>77</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>77</v>
@@ -7890,25 +7922,25 @@
         <v>77</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>420</v>
+        <v>270</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>426</v>
+        <v>271</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>77</v>
@@ -7919,10 +7951,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7945,18 +7977,16 @@
         <v>77</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>428</v>
+        <v>132</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>429</v>
+        <v>133</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>430</v>
+        <v>134</v>
       </c>
       <c r="N54" s="2"/>
-      <c r="O54" t="s" s="2">
-        <v>431</v>
-      </c>
+      <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>77</v>
       </c>
@@ -7992,19 +8022,19 @@
         <v>77</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AC54" t="s" s="2">
-        <v>77</v>
+        <v>273</v>
       </c>
       <c r="AD54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>77</v>
+        <v>136</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>427</v>
+        <v>274</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>78</v>
@@ -8016,13 +8046,13 @@
         <v>77</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>426</v>
+        <v>77</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>77</v>
@@ -8033,12 +8063,14 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="C55" s="2"/>
+        <v>421</v>
+      </c>
+      <c r="C55" t="s" s="2">
+        <v>423</v>
+      </c>
       <c r="D55" t="s" s="2">
         <v>77</v>
       </c>
@@ -8047,7 +8079,7 @@
         <v>78</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>77</v>
@@ -8059,15 +8091,17 @@
         <v>77</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>230</v>
+        <v>166</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="N55" s="2"/>
+        <v>425</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>426</v>
+      </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>77</v>
@@ -8092,13 +8126,13 @@
         <v>77</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>234</v>
+        <v>77</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>435</v>
+        <v>77</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>436</v>
+        <v>77</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>77</v>
@@ -8116,7 +8150,7 @@
         <v>77</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>432</v>
+        <v>274</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>78</v>
@@ -8128,13 +8162,13 @@
         <v>77</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>437</v>
+        <v>77</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>77</v>
@@ -8145,10 +8179,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>438</v>
+        <v>427</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>438</v>
+        <v>427</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8159,7 +8193,7 @@
         <v>78</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>77</v>
@@ -8168,18 +8202,20 @@
         <v>77</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>439</v>
+        <v>267</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>440</v>
+        <v>281</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="N56" s="2"/>
+        <v>282</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>283</v>
+      </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>77</v>
@@ -8228,39 +8264,39 @@
         <v>77</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>438</v>
+        <v>284</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>77</v>
+        <v>285</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>442</v>
+        <v>77</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>443</v>
+        <v>130</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>444</v>
+        <v>77</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>445</v>
+        <v>428</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>445</v>
+        <v>428</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8271,7 +8307,7 @@
         <v>78</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>77</v>
@@ -8280,18 +8316,20 @@
         <v>77</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>296</v>
+        <v>101</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>446</v>
+        <v>287</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="N57" s="2"/>
+        <v>288</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>289</v>
+      </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>77</v>
@@ -8316,13 +8354,13 @@
         <v>77</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>77</v>
+        <v>290</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>77</v>
+        <v>291</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>77</v>
+        <v>292</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>77</v>
@@ -8340,13 +8378,13 @@
         <v>77</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>445</v>
+        <v>293</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>77</v>
@@ -8358,7 +8396,7 @@
         <v>77</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>448</v>
+        <v>130</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>77</v>
@@ -8369,10 +8407,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>449</v>
+        <v>429</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>449</v>
+        <v>429</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8392,18 +8430,20 @@
         <v>77</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>302</v>
+        <v>183</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="N58" s="2"/>
+        <v>296</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>297</v>
+      </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>77</v>
@@ -8452,7 +8492,7 @@
         <v>77</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>78</v>
@@ -8464,13 +8504,13 @@
         <v>77</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>77</v>
@@ -8481,10 +8521,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>450</v>
+        <v>430</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>450</v>
+        <v>430</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8495,7 +8535,7 @@
         <v>78</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>77</v>
@@ -8504,18 +8544,20 @@
         <v>77</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>132</v>
+        <v>267</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>133</v>
+        <v>301</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="N59" s="2"/>
+        <v>302</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>303</v>
+      </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>77</v>
@@ -8552,35 +8594,37 @@
         <v>77</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AC59" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AD59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>136</v>
+        <v>77</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>77</v>
+        <v>130</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>77</v>
@@ -8591,14 +8635,12 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>451</v>
+        <v>431</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="C60" t="s" s="2">
-        <v>452</v>
-      </c>
+        <v>431</v>
+      </c>
+      <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
         <v>77</v>
       </c>
@@ -8619,16 +8661,16 @@
         <v>77</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>453</v>
+        <v>230</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>454</v>
+        <v>432</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>447</v>
+        <v>433</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>455</v>
+        <v>434</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -8654,13 +8696,13 @@
         <v>77</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>77</v>
+        <v>234</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>77</v>
+        <v>435</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>77</v>
+        <v>436</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>77</v>
@@ -8678,7 +8720,7 @@
         <v>77</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>308</v>
+        <v>431</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>78</v>
@@ -8687,16 +8729,16 @@
         <v>79</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>145</v>
+        <v>77</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>77</v>
+        <v>437</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>77</v>
@@ -8707,14 +8749,14 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>456</v>
+        <v>438</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>456</v>
+        <v>438</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>316</v>
+        <v>77</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
@@ -8727,25 +8769,23 @@
         <v>77</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>132</v>
+        <v>439</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>317</v>
+        <v>440</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>179</v>
-      </c>
+        <v>441</v>
+      </c>
+      <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
-        <v>180</v>
+        <v>442</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>77</v>
@@ -8794,7 +8834,7 @@
         <v>77</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>319</v>
+        <v>438</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>78</v>
@@ -8806,13 +8846,13 @@
         <v>77</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>130</v>
+        <v>437</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>77</v>
@@ -8823,10 +8863,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>457</v>
+        <v>443</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>457</v>
+        <v>443</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8837,7 +8877,7 @@
         <v>78</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>77</v>
@@ -8852,10 +8892,10 @@
         <v>230</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>458</v>
+        <v>444</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>459</v>
+        <v>445</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -8882,13 +8922,13 @@
         <v>77</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>111</v>
+        <v>234</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>460</v>
+        <v>446</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>461</v>
+        <v>447</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>77</v>
@@ -8906,13 +8946,13 @@
         <v>77</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>457</v>
+        <v>443</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>77</v>
@@ -8924,7 +8964,7 @@
         <v>77</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>462</v>
+        <v>448</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>77</v>
@@ -8935,10 +8975,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>463</v>
+        <v>449</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>463</v>
+        <v>449</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -8946,10 +8986,10 @@
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>77</v>
@@ -8961,13 +9001,13 @@
         <v>77</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>464</v>
+        <v>450</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>465</v>
+        <v>451</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>466</v>
+        <v>452</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -9018,13 +9058,13 @@
         <v>77</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>463</v>
+        <v>449</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>77</v>
@@ -9033,24 +9073,24 @@
         <v>99</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>77</v>
+        <v>453</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>467</v>
+        <v>454</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>77</v>
+        <v>455</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>468</v>
+        <v>456</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>468</v>
+        <v>456</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9073,20 +9113,16 @@
         <v>77</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>469</v>
+        <v>335</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>470</v>
+        <v>457</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="O64" t="s" s="2">
-        <v>473</v>
-      </c>
+        <v>458</v>
+      </c>
+      <c r="N64" s="2"/>
+      <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
         <v>77</v>
       </c>
@@ -9134,7 +9170,7 @@
         <v>77</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>468</v>
+        <v>456</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>78</v>
@@ -9152,7 +9188,7 @@
         <v>77</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>474</v>
+        <v>459</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>77</v>
@@ -9163,10 +9199,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>475</v>
+        <v>460</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>475</v>
+        <v>460</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9177,7 +9213,7 @@
         <v>78</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>77</v>
@@ -9189,17 +9225,15 @@
         <v>77</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>230</v>
+        <v>267</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>476</v>
+        <v>268</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>472</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="N65" s="2"/>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
         <v>77</v>
@@ -9224,54 +9258,850 @@
         <v>77</v>
       </c>
       <c r="X65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF65" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="AG65" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH65" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL65" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="AM65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN65" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="B66" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="C66" s="2"/>
+      <c r="D66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E66" s="2"/>
+      <c r="F66" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K66" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="L66" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="N66" s="2"/>
+      <c r="O66" s="2"/>
+      <c r="P66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q66" s="2"/>
+      <c r="R66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AC66" s="2"/>
+      <c r="AD66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE66" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AF66" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AK66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN66" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="B67" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="C67" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="D67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E67" s="2"/>
+      <c r="F67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K67" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="L67" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="O67" s="2"/>
+      <c r="P67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q67" s="2"/>
+      <c r="R67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF67" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI67" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AK67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN67" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="B68" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="C68" s="2"/>
+      <c r="D68" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="E68" s="2"/>
+      <c r="F68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I68" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="J68" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K68" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="L68" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="O68" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="P68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q68" s="2"/>
+      <c r="R68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF68" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="AG68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AK68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL68" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="AM68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN68" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="B69" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="C69" s="2"/>
+      <c r="D69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E69" s="2"/>
+      <c r="F69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G69" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K69" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="L69" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="N69" s="2"/>
+      <c r="O69" s="2"/>
+      <c r="P69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q69" s="2"/>
+      <c r="R69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X69" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="Y69" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="Z69" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="AA69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF69" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL69" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="AM69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN69" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="B70" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="C70" s="2"/>
+      <c r="D70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E70" s="2"/>
+      <c r="F70" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G70" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K70" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="L70" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="N70" s="2"/>
+      <c r="O70" s="2"/>
+      <c r="P70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q70" s="2"/>
+      <c r="R70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF70" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH70" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL70" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="AM70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN70" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="B71" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="C71" s="2"/>
+      <c r="D71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E71" s="2"/>
+      <c r="F71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K71" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="L71" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="N71" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="O71" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="P71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q71" s="2"/>
+      <c r="R71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF71" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL71" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="AM71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN71" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="B72" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="C72" s="2"/>
+      <c r="D72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E72" s="2"/>
+      <c r="F72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K72" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="L72" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="N72" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="O72" s="2"/>
+      <c r="P72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q72" s="2"/>
+      <c r="R72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X72" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="Y65" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="Z65" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="AA65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF65" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="AG65" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH65" t="s" s="2">
+      <c r="Y72" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="Z72" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="AA72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF72" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH72" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="AI65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ65" t="s" s="2">
+      <c r="AI72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AK65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL65" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="AM65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN65" t="s" s="2">
+      <c r="AK72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL72" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="AM72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN72" t="s" s="2">
         <v>77</v>
       </c>
     </row>

--- a/StructureDefinition-profile-Procedure.xlsx
+++ b/StructureDefinition-profile-Procedure.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2624" uniqueCount="492">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2013" uniqueCount="434">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T11:59:20.9237553-06:00</t>
+    <t>2026-02-21T13:36:54.3275267-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Procedure</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Procedure|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -452,7 +452,7 @@
     <t>occurrence</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Procedure.occurrence}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Procedure.occurrence|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -463,7 +463,7 @@
   </si>
   <si>
     <t>Note that the target element context `Procedure.performed[x]` is a choice-type element and cannot directly hold extensions. The context is moved up to parent element `Procedure`.
-Element `Procedure.occurrence[x]` has is mapped to FHIR R4 element `Procedure.performed[x]`, but has no comparisons.
+Element `Procedure.occurrence[x]` is mapped to FHIR R4 element `Procedure.performed[x]` as `SourceIsBroaderThanTarget`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.
 Note that the target element context `Procedure.performed[x]` is a choice-type element and cannot directly hold extensions. The context is moved up to parent element `Procedure`.</t>
   </si>
   <si>
@@ -477,7 +477,7 @@
     <t>recorded</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Procedure.recorded}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Procedure.recorded|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -496,7 +496,7 @@
     <t>reported</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Procedure.reported}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Procedure.reported|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -525,42 +525,6 @@
   </si>
   <si>
     <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/Organization,http://hl7.org/fhir/StructureDefinition/Patient,http://hl7.org/fhir/StructureDefinition/Practitioner,http://hl7.org/fhir/StructureDefinition/PractitionerRole,http://hl7.org/fhir/StructureDefinition/RelatedPerson in FHIR R4</t>
-  </si>
-  <si>
-    <t>Procedure.extension:focus</t>
-  </si>
-  <si>
-    <t>focus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {alternate-reference}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for Procedure.focus from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/CareTeam,http://hl7.org/fhir/StructureDefinition/Group,http://hl7.org/fhir/StructureDefinition/Organization,http://hl7.org/fhir/StructureDefinition/Patient,http://hl7.org/fhir/StructureDefinition/Practitioner,http://hl7.org/fhir/StructureDefinition/PractitionerRole,http://hl7.org/fhir/StructureDefinition/RelatedPerson,http://hl7.org/fhir/StructureDefinition/Specimen in FHIR R4</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `Procedure.focus` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `Procedure.focus` has a context of Procedure based on following the parent source element upwards and mapping to `Procedure`.</t>
-  </si>
-  <si>
-    <t>Procedure.extension:supportingInfo</t>
-  </si>
-  <si>
-    <t>supportingInfo</t>
-  </si>
-  <si>
-    <t>Cross-version extension for Procedure.supportingInfo from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/Resource in FHIR R4</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `Procedure.supportingInfo` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `Procedure.supportingInfo` has a context of Procedure based on following the parent source element upwards and mapping to `Procedure`.</t>
   </si>
   <si>
     <t>Procedure.modifierExtension</t>
@@ -850,7 +814,116 @@
     <t>PID-3</t>
   </si>
   <si>
-    <t>Procedure.subject.id</t>
+    <t>Procedure.encounter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Encounter|4.0.1)
+</t>
+  </si>
+  <si>
+    <t>Encounter created as part of</t>
+  </si>
+  <si>
+    <t>The Encounter during which this Procedure was created or performed or to which the creation of this record is tightly associated.</t>
+  </si>
+  <si>
+    <t>This will typically be the encounter the event occurred within, but some activities may be initiated prior to or after the official completion of an encounter but still be tied to the context of the encounter.</t>
+  </si>
+  <si>
+    <t>Event.context</t>
+  </si>
+  <si>
+    <t>.inboundRelationship[typeCode=COMP].source[classCode=ENC, moodCode=EVN]</t>
+  </si>
+  <si>
+    <t>FiveWs.context</t>
+  </si>
+  <si>
+    <t>PV1-19</t>
+  </si>
+  <si>
+    <t>Procedure.performed[x]</t>
+  </si>
+  <si>
+    <t>dateTime
+PeriodstringAgeRange</t>
+  </si>
+  <si>
+    <t>When the procedure was performed</t>
+  </si>
+  <si>
+    <t>Estimated or actual date, date-time, period, or age when the procedure was performed.  Allows a period to support complex procedures that span more than one date, and also allows for the length of the procedure to be captured.</t>
+  </si>
+  <si>
+    <t>Age is generally used when the patient reports an age at which the procedure was performed. Range is generally used when the patient reports an age range when the procedure was performed, such as sometime between 20-25 years old.  dateTime supports a range of precision due to some procedures being reported as past procedures that might not have millisecond precision while other procedures performed and documented during the encounter might have more precise UTC timestamps with timezone.</t>
+  </si>
+  <si>
+    <t>Event.occurrence[x]</t>
+  </si>
+  <si>
+    <t>.effectiveTime</t>
+  </si>
+  <si>
+    <t>FiveWs.done[x]</t>
+  </si>
+  <si>
+    <t>OBR-7</t>
+  </si>
+  <si>
+    <t>Procedure.recorder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Patient|4.0.1|RelatedPerson|4.0.1|Practitioner|4.0.1|PractitionerRole|4.0.1)
+</t>
+  </si>
+  <si>
+    <t>Who recorded the procedure</t>
+  </si>
+  <si>
+    <t>Individual who recorded the record and takes responsibility for its content.</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=AUT].role</t>
+  </si>
+  <si>
+    <t>FiveWs.author</t>
+  </si>
+  <si>
+    <t>Procedure.asserter</t>
+  </si>
+  <si>
+    <t>Person who asserts this procedure</t>
+  </si>
+  <si>
+    <t>Individual who is making the procedure statement.</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=INF].role</t>
+  </si>
+  <si>
+    <t>FiveWs.source</t>
+  </si>
+  <si>
+    <t>Procedure.performer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BackboneElement
+</t>
+  </si>
+  <si>
+    <t>The people who performed the procedure</t>
+  </si>
+  <si>
+    <t>Limited to "real" people rather than equipment.</t>
+  </si>
+  <si>
+    <t>Event.performer</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=PRF]</t>
+  </si>
+  <si>
+    <t>Procedure.performer.id</t>
   </si>
   <si>
     <t xml:space="preserve">string
@@ -869,243 +942,29 @@
     <t>n/a</t>
   </si>
   <si>
-    <t>Procedure.subject.extension</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
+    <t>Procedure.performer.extension</t>
   </si>
   <si>
     <t>Element.extension</t>
   </si>
   <si>
-    <t>Procedure.subject.extension:subject</t>
-  </si>
-  <si>
-    <t>subject</t>
-  </si>
-  <si>
-    <t>Cross-version extension for Procedure.subject from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/Device,http://hl7.org/fhir/StructureDefinition/Location,http://hl7.org/fhir/StructureDefinition/Organization,http://hl7.org/fhir/StructureDefinition/Practitioner in FHIR R4</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `Procedure.subject` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `Procedure.subject` has is mapped to FHIR R4 element `Procedure.subject`, but has no comparisons.</t>
-  </si>
-  <si>
-    <t>Procedure.subject.reference</t>
-  </si>
-  <si>
-    <t>Literal reference, Relative, internal or absolute URL</t>
-  </si>
-  <si>
-    <t>A reference to a location at which the other resource is found. The reference may be a relative reference, in which case it is relative to the service base URL, or an absolute URL that resolves to the location where the resource is found. The reference may be version specific or not. If the reference is not to a FHIR RESTful server, then it should be assumed to be version specific. Internal fragment references (start with '#') refer to contained resources.</t>
-  </si>
-  <si>
-    <t>Using absolute URLs provides a stable scalable approach suitable for a cloud/web context, while using relative/logical references provides a flexible approach suitable for use when trading across closed eco-system boundaries.   Absolute URLs do not need to point to a FHIR RESTful server, though this is the preferred approach. If the URL conforms to the structure "/[type]/[id]" then it should be assumed that the reference is to a FHIR RESTful server.</t>
-  </si>
-  <si>
-    <t>Reference.reference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ref-1
+    <t>Procedure.performer.extension:period</t>
+  </si>
+  <si>
+    <t>period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Procedure.performer.period|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
-    <t>Procedure.subject.type</t>
-  </si>
-  <si>
-    <t>Type the reference refers to (e.g. "Patient")</t>
-  </si>
-  <si>
-    <t>The expected type of the target of the reference. If both Reference.type and Reference.reference are populated and Reference.reference is a FHIR URL, both SHALL be consistent.
-The type is the Canonical URL of Resource Definition that is the type this reference refers to. References are URLs that are relative to http://hl7.org/fhir/StructureDefinition/ e.g. "Patient" is a reference to http://hl7.org/fhir/StructureDefinition/Patient. Absolute URLs are only allowed for logical models (and can only be used in references in logical models, not resources).</t>
-  </si>
-  <si>
-    <t>This element is used to indicate the type of  the target of the reference. This may be used which ever of the other elements are populated (or not). In some cases, the type of the target may be determined by inspection of the reference (e.g. a RESTful URL) or by resolving the target of the reference; if both the type and a reference is provided, the reference SHALL resolve to a resource of the same type as that specified.</t>
-  </si>
-  <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>Aa resource (or, for logical models, the URI of the logical model).</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/resource-types|4.0.1</t>
-  </si>
-  <si>
-    <t>Reference.type</t>
-  </si>
-  <si>
-    <t>Procedure.subject.identifier</t>
-  </si>
-  <si>
-    <t>Logical reference, when literal reference is not known</t>
-  </si>
-  <si>
-    <t>An identifier for the target resource. This is used when there is no way to reference the other resource directly, either because the entity it represents is not available through a FHIR server, or because there is no way for the author of the resource to convert a known identifier to an actual location. There is no requirement that a Reference.identifier point to something that is actually exposed as a FHIR instance, but it SHALL point to a business concept that would be expected to be exposed as a FHIR instance, and that instance would need to be of a FHIR resource type allowed by the reference.</t>
-  </si>
-  <si>
-    <t>When an identifier is provided in place of a reference, any system processing the reference will only be able to resolve the identifier to a reference if it understands the business context in which the identifier is used. Sometimes this is global (e.g. a national identifier) but often it is not. For this reason, none of the useful mechanisms described for working with references (e.g. chaining, includes) are possible, nor should servers be expected to be able resolve the reference. Servers may accept an identifier based reference untouched, resolve it, and/or reject it - see CapabilityStatement.rest.resource.referencePolicy. 
-When both an identifier and a literal reference are provided, the literal reference is preferred. Applications processing the resource are allowed - but not required - to check that the identifier matches the literal reference
-Applications converting a logical reference to a literal reference may choose to leave the logical reference present, or remove it.
-Reference is intended to point to a structure that can potentially be expressed as a FHIR resource, though there is no need for it to exist as an actual FHIR resource instance - except in as much as an application wishes to actual find the target of the reference. The content referred to be the identifier must meet the logical constraints implied by any limitations on what resource types are permitted for the reference.  For example, it would not be legitimate to send the identifier for a drug prescription if the type were Reference(Observation|DiagnosticReport).  One of the use-cases for Reference.identifier is the situation where no FHIR representation exists (where the type is Reference (Any).</t>
-  </si>
-  <si>
-    <t>Reference.identifier</t>
-  </si>
-  <si>
-    <t>.identifier</t>
-  </si>
-  <si>
-    <t>Procedure.subject.display</t>
-  </si>
-  <si>
-    <t>Text alternative for the resource</t>
-  </si>
-  <si>
-    <t>Plain text narrative that identifies the resource in addition to the resource reference.</t>
-  </si>
-  <si>
-    <t>This is generally not the same as the Resource.text of the referenced resource.  The purpose is to identify what's being referenced, not to fully describe it.</t>
-  </si>
-  <si>
-    <t>Reference.display</t>
-  </si>
-  <si>
-    <t>Procedure.encounter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Encounter|4.0.1)
-</t>
-  </si>
-  <si>
-    <t>Encounter created as part of</t>
-  </si>
-  <si>
-    <t>The Encounter during which this Procedure was created or performed or to which the creation of this record is tightly associated.</t>
-  </si>
-  <si>
-    <t>This will typically be the encounter the event occurred within, but some activities may be initiated prior to or after the official completion of an encounter but still be tied to the context of the encounter.</t>
-  </si>
-  <si>
-    <t>Event.context</t>
-  </si>
-  <si>
-    <t>.inboundRelationship[typeCode=COMP].source[classCode=ENC, moodCode=EVN]</t>
-  </si>
-  <si>
-    <t>FiveWs.context</t>
-  </si>
-  <si>
-    <t>PV1-19</t>
-  </si>
-  <si>
-    <t>Procedure.performed[x]</t>
-  </si>
-  <si>
-    <t>dateTime
-PeriodstringAgeRange</t>
-  </si>
-  <si>
-    <t>When the procedure was performed</t>
-  </si>
-  <si>
-    <t>Estimated or actual date, date-time, period, or age when the procedure was performed.  Allows a period to support complex procedures that span more than one date, and also allows for the length of the procedure to be captured.</t>
-  </si>
-  <si>
-    <t>Age is generally used when the patient reports an age at which the procedure was performed. Range is generally used when the patient reports an age range when the procedure was performed, such as sometime between 20-25 years old.  dateTime supports a range of precision due to some procedures being reported as past procedures that might not have millisecond precision while other procedures performed and documented during the encounter might have more precise UTC timestamps with timezone.</t>
-  </si>
-  <si>
-    <t>Event.occurrence[x]</t>
-  </si>
-  <si>
-    <t>.effectiveTime</t>
-  </si>
-  <si>
-    <t>FiveWs.done[x]</t>
-  </si>
-  <si>
-    <t>OBR-7</t>
-  </si>
-  <si>
-    <t>Procedure.recorder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Patient|4.0.1|RelatedPerson|4.0.1|Practitioner|4.0.1|PractitionerRole|4.0.1)
-</t>
-  </si>
-  <si>
-    <t>Who recorded the procedure</t>
-  </si>
-  <si>
-    <t>Individual who recorded the record and takes responsibility for its content.</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=AUT].role</t>
-  </si>
-  <si>
-    <t>FiveWs.author</t>
-  </si>
-  <si>
-    <t>Procedure.asserter</t>
-  </si>
-  <si>
-    <t>Person who asserts this procedure</t>
-  </si>
-  <si>
-    <t>Individual who is making the procedure statement.</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=INF].role</t>
-  </si>
-  <si>
-    <t>FiveWs.source</t>
-  </si>
-  <si>
-    <t>Procedure.performer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BackboneElement
-</t>
-  </si>
-  <si>
-    <t>The people who performed the procedure</t>
-  </si>
-  <si>
-    <t>Limited to "real" people rather than equipment.</t>
-  </si>
-  <si>
-    <t>Event.performer</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=PRF]</t>
-  </si>
-  <si>
-    <t>Procedure.performer.id</t>
-  </si>
-  <si>
-    <t>Procedure.performer.extension</t>
-  </si>
-  <si>
-    <t>Procedure.performer.extension:performer</t>
-  </si>
-  <si>
-    <t>performer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Procedure.performer}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for Procedure.performer from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Indicates who or what performed the procedure and how they were involved.</t>
-  </si>
-  <si>
-    <t>Element `Procedure.performer` has is mapped to FHIR R4 element `Procedure.performer`, but has no comparisons.</t>
+    <t>Cross-version extension for Procedure.performer.period from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Time period during which the performer performed the procedure.</t>
+  </si>
+  <si>
+    <t>Element `Procedure.performer.period` has a context of Procedure.performer based on following the parent source element upwards and mapping to `Procedure`.</t>
   </si>
   <si>
     <t>Procedure.performer.modifierExtension</t>
@@ -1332,40 +1191,6 @@
     <t>.inboundRelationship[typeCode=SUBJ].source[classCode=OBS, moodCode=EVN]</t>
   </si>
   <si>
-    <t>Procedure.report.id</t>
-  </si>
-  <si>
-    <t>Procedure.report.extension</t>
-  </si>
-  <si>
-    <t>Procedure.report.extension:report</t>
-  </si>
-  <si>
-    <t>report</t>
-  </si>
-  <si>
-    <t>Cross-version extension for Procedure.report from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/DocumentReference in FHIR R4</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `Procedure.report` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `Procedure.report` has is mapped to FHIR R4 element `Procedure.report`, but has no comparisons.</t>
-  </si>
-  <si>
-    <t>Procedure.report.reference</t>
-  </si>
-  <si>
-    <t>Procedure.report.type</t>
-  </si>
-  <si>
-    <t>Procedure.report.identifier</t>
-  </si>
-  <si>
-    <t>Procedure.report.display</t>
-  </si>
-  <si>
     <t>Procedure.complication</t>
   </si>
   <si>
@@ -1461,20 +1286,10 @@
     <t>Procedure.focalDevice.extension</t>
   </si>
   <si>
-    <t>Procedure.focalDevice.extension:focalDevice</t>
-  </si>
-  <si>
-    <t>focalDevice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Procedure.focalDevice}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for Procedure.focalDevice from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Element `Procedure.focalDevice` has is mapped to FHIR R4 element `Procedure.focalDevice`, but has no comparisons.</t>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>Procedure.focalDevice.modifierExtension</t>
@@ -1859,7 +1674,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN72"/>
+  <dimension ref="A1:AN55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1868,7 +1683,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="37.0390625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="34.09375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="34.09375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="16.203125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
@@ -1896,7 +1711,7 @@
     <col min="26" max="26" width="56.046875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="15.98046875" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="13.44140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="30.5546875" customWidth="true" bestFit="true" hidden="true"/>
@@ -3520,43 +3335,43 @@
         <v>164</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="C15" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" t="s" s="2">
         <v>165</v>
-      </c>
-      <c r="D15" t="s" s="2">
-        <v>77</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="J15" t="s" s="2">
         <v>77</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="M15" t="s" s="2">
+      <c r="N15" t="s" s="2">
         <v>168</v>
       </c>
-      <c r="N15" t="s" s="2">
+      <c r="O15" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
         <v>77</v>
       </c>
@@ -3604,7 +3419,7 @@
         <v>77</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>137</v>
+        <v>170</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>78</v>
@@ -3622,7 +3437,7 @@
         <v>77</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>77</v>
+        <v>130</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>77</v>
@@ -3633,14 +3448,12 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="C16" t="s" s="2">
         <v>171</v>
       </c>
+      <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
         <v>77</v>
       </c>
@@ -3658,21 +3471,23 @@
         <v>77</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="O16" s="2"/>
+        <v>175</v>
+      </c>
+      <c r="O16" t="s" s="2">
+        <v>176</v>
+      </c>
       <c r="P16" t="s" s="2">
         <v>77</v>
       </c>
@@ -3720,7 +3535,7 @@
         <v>77</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>137</v>
+        <v>171</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>78</v>
@@ -3732,31 +3547,31 @@
         <v>77</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>77</v>
+        <v>177</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>77</v>
+        <v>178</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>77</v>
+        <v>179</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>77</v>
+        <v>180</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>176</v>
+        <v>77</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
@@ -3769,26 +3584,22 @@
         <v>77</v>
       </c>
       <c r="I17" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J17" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="J17" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="K17" t="s" s="2">
-        <v>132</v>
+        <v>182</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="O17" t="s" s="2">
-        <v>180</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>77</v>
       </c>
@@ -3848,13 +3659,13 @@
         <v>77</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>77</v>
+        <v>185</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>130</v>
+        <v>186</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>77</v>
@@ -3865,10 +3676,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3891,20 +3702,18 @@
         <v>88</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>183</v>
+        <v>101</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="O18" t="s" s="2">
-        <v>187</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>77</v>
       </c>
@@ -3952,7 +3761,7 @@
         <v>77</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>78</v>
@@ -3967,16 +3776,16 @@
         <v>99</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>190</v>
+        <v>77</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>191</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19">
@@ -3988,7 +3797,7 @@
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>77</v>
+        <v>193</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
@@ -4007,13 +3816,13 @@
         <v>88</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -4079,10 +3888,10 @@
         <v>99</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>77</v>
@@ -4093,14 +3902,14 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>77</v>
+        <v>200</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
@@ -4119,16 +3928,16 @@
         <v>88</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>101</v>
+        <v>201</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -4178,7 +3987,7 @@
         <v>77</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>78</v>
@@ -4193,10 +4002,10 @@
         <v>99</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>77</v>
@@ -4207,41 +4016,43 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>204</v>
+        <v>77</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="J21" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>205</v>
+        <v>107</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="N21" s="2"/>
+        <v>209</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>210</v>
+      </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>77</v>
@@ -4266,13 +4077,13 @@
         <v>77</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>77</v>
+        <v>211</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>77</v>
+        <v>212</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>77</v>
+        <v>213</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>77</v>
@@ -4290,13 +4101,13 @@
         <v>77</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>77</v>
@@ -4305,13 +4116,13 @@
         <v>99</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>77</v>
+        <v>216</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>77</v>
@@ -4319,21 +4130,21 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>77</v>
@@ -4345,16 +4156,16 @@
         <v>88</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -4380,13 +4191,13 @@
         <v>77</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>77</v>
+        <v>223</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>77</v>
+        <v>224</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>77</v>
+        <v>225</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>77</v>
@@ -4404,13 +4215,13 @@
         <v>77</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>77</v>
@@ -4419,10 +4230,10 @@
         <v>99</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>77</v>
@@ -4433,10 +4244,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4444,7 +4255,7 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>87</v>
@@ -4453,23 +4264,21 @@
         <v>77</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="J23" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>107</v>
+        <v>219</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>221</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="N23" s="2"/>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>77</v>
@@ -4494,13 +4303,13 @@
         <v>77</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>77</v>
@@ -4518,10 +4327,10 @@
         <v>77</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>87</v>
@@ -4533,13 +4342,13 @@
         <v>99</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>225</v>
+        <v>77</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>77</v>
@@ -4547,14 +4356,14 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
@@ -4573,18 +4382,18 @@
         <v>88</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="O24" s="2"/>
+        <v>238</v>
+      </c>
+      <c r="N24" s="2"/>
+      <c r="O24" t="s" s="2">
+        <v>239</v>
+      </c>
       <c r="P24" t="s" s="2">
         <v>77</v>
       </c>
@@ -4608,31 +4417,31 @@
         <v>77</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="Y24" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="Z24" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="AA24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF24" t="s" s="2">
         <v>235</v>
-      </c>
-      <c r="Z24" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="AA24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF24" t="s" s="2">
-        <v>228</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
@@ -4647,32 +4456,32 @@
         <v>99</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>77</v>
+        <v>244</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>77</v>
+        <v>245</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>77</v>
+        <v>247</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>87</v>
@@ -4687,13 +4496,13 @@
         <v>88</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>230</v>
+        <v>248</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -4720,13 +4529,13 @@
         <v>77</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>234</v>
+        <v>77</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>242</v>
+        <v>77</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>243</v>
+        <v>77</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>77</v>
@@ -4744,10 +4553,10 @@
         <v>77</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>87</v>
@@ -4759,28 +4568,28 @@
         <v>99</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>77</v>
+        <v>251</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>77</v>
+        <v>254</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>247</v>
+        <v>77</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
@@ -4799,18 +4608,18 @@
         <v>88</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>230</v>
+        <v>256</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="N26" s="2"/>
-      <c r="O26" t="s" s="2">
-        <v>250</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>77</v>
       </c>
@@ -4834,13 +4643,13 @@
         <v>77</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>234</v>
+        <v>77</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>251</v>
+        <v>77</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>252</v>
+        <v>77</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>77</v>
@@ -4858,7 +4667,7 @@
         <v>77</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>78</v>
@@ -4873,32 +4682,32 @@
         <v>99</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>256</v>
+        <v>263</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>258</v>
+        <v>77</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>87</v>
@@ -4913,15 +4722,17 @@
         <v>88</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="N27" s="2"/>
+        <v>267</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>268</v>
+      </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>77</v>
@@ -4970,10 +4781,10 @@
         <v>77</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>87</v>
@@ -4985,24 +4796,24 @@
         <v>99</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>265</v>
+        <v>272</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5022,16 +4833,16 @@
         <v>77</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -5082,7 +4893,7 @@
         <v>77</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>78</v>
@@ -5094,16 +4905,16 @@
         <v>77</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>77</v>
+        <v>278</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>77</v>
@@ -5111,10 +4922,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5122,11 +4933,11 @@
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G29" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G29" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="H29" t="s" s="2">
         <v>77</v>
       </c>
@@ -5134,16 +4945,16 @@
         <v>77</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>132</v>
+        <v>274</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>133</v>
+        <v>280</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>134</v>
+        <v>281</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -5182,40 +4993,40 @@
         <v>77</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>273</v>
+        <v>77</v>
       </c>
       <c r="AD29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>136</v>
+        <v>77</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>77</v>
+        <v>282</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>77</v>
+        <v>283</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>77</v>
@@ -5223,23 +5034,21 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="C30" t="s" s="2">
-        <v>276</v>
-      </c>
+        <v>284</v>
+      </c>
+      <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>77</v>
@@ -5248,20 +5057,18 @@
         <v>77</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>166</v>
+        <v>285</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>279</v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="N30" s="2"/>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>77</v>
@@ -5310,7 +5117,7 @@
         <v>77</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>78</v>
@@ -5322,13 +5129,13 @@
         <v>77</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>77</v>
+        <v>288</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>77</v>
+        <v>289</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>77</v>
@@ -5339,10 +5146,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5362,20 +5169,18 @@
         <v>77</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>267</v>
+        <v>291</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>281</v>
+        <v>292</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>283</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="N31" s="2"/>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>77</v>
@@ -5424,7 +5229,7 @@
         <v>77</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
@@ -5433,16 +5238,16 @@
         <v>87</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>285</v>
+        <v>77</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>130</v>
+        <v>295</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>77</v>
@@ -5453,10 +5258,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5467,7 +5272,7 @@
         <v>78</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>77</v>
@@ -5476,20 +5281,18 @@
         <v>77</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>101</v>
+        <v>132</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>287</v>
+        <v>133</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>289</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="N32" s="2"/>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>77</v>
@@ -5514,49 +5317,47 @@
         <v>77</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>290</v>
+        <v>77</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>291</v>
+        <v>77</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>292</v>
+        <v>77</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC32" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="AC32" s="2"/>
       <c r="AD32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>77</v>
+        <v>136</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>130</v>
+        <v>77</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>77</v>
@@ -5567,12 +5368,14 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="C33" s="2"/>
+        <v>296</v>
+      </c>
+      <c r="C33" t="s" s="2">
+        <v>299</v>
+      </c>
       <c r="D33" t="s" s="2">
         <v>77</v>
       </c>
@@ -5590,19 +5393,19 @@
         <v>77</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>183</v>
+        <v>300</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -5652,25 +5455,25 @@
         <v>77</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>77</v>
+        <v>145</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>299</v>
+        <v>77</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>77</v>
@@ -5681,44 +5484,46 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>77</v>
+        <v>305</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="J34" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>267</v>
+        <v>132</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="O34" s="2"/>
+        <v>168</v>
+      </c>
+      <c r="O34" t="s" s="2">
+        <v>169</v>
+      </c>
       <c r="P34" t="s" s="2">
         <v>77</v>
       </c>
@@ -5766,19 +5571,19 @@
         <v>77</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>77</v>
@@ -5795,10 +5600,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5821,18 +5626,18 @@
         <v>88</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>306</v>
+        <v>219</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="O35" s="2"/>
+        <v>311</v>
+      </c>
+      <c r="N35" s="2"/>
+      <c r="O35" t="s" s="2">
+        <v>312</v>
+      </c>
       <c r="P35" t="s" s="2">
         <v>77</v>
       </c>
@@ -5856,13 +5661,13 @@
         <v>77</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>77</v>
+        <v>223</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>77</v>
+        <v>313</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>77</v>
+        <v>314</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>77</v>
@@ -5880,7 +5685,7 @@
         <v>77</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>78</v>
@@ -5895,24 +5700,24 @@
         <v>99</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>312</v>
+        <v>77</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5920,7 +5725,7 @@
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>87</v>
@@ -5935,18 +5740,18 @@
         <v>88</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="O36" s="2"/>
+        <v>321</v>
+      </c>
+      <c r="N36" s="2"/>
+      <c r="O36" t="s" s="2">
+        <v>322</v>
+      </c>
       <c r="P36" t="s" s="2">
         <v>77</v>
       </c>
@@ -5994,10 +5799,10 @@
         <v>77</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>87</v>
@@ -6009,24 +5814,24 @@
         <v>99</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>322</v>
+        <v>326</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6046,19 +5851,21 @@
         <v>77</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="N37" s="2"/>
-      <c r="O37" s="2"/>
+      <c r="O37" t="s" s="2">
+        <v>331</v>
+      </c>
       <c r="P37" t="s" s="2">
         <v>77</v>
       </c>
@@ -6106,7 +5913,7 @@
         <v>77</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
@@ -6124,10 +5931,10 @@
         <v>77</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>328</v>
+        <v>77</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>77</v>
@@ -6135,10 +5942,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6161,16 +5968,18 @@
         <v>88</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>324</v>
+        <v>334</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="N38" s="2"/>
-      <c r="O38" s="2"/>
+      <c r="O38" t="s" s="2">
+        <v>337</v>
+      </c>
       <c r="P38" t="s" s="2">
         <v>77</v>
       </c>
@@ -6218,7 +6027,7 @@
         <v>77</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>78</v>
@@ -6236,10 +6045,10 @@
         <v>77</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>77</v>
@@ -6247,10 +6056,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6273,15 +6082,17 @@
         <v>88</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>335</v>
+        <v>219</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="N39" s="2"/>
+        <v>342</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>343</v>
+      </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>77</v>
@@ -6306,13 +6117,13 @@
         <v>77</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>77</v>
+        <v>223</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>77</v>
+        <v>344</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>77</v>
+        <v>345</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>77</v>
@@ -6330,7 +6141,7 @@
         <v>77</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
@@ -6345,13 +6156,13 @@
         <v>99</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>77</v>
+        <v>348</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>77</v>
@@ -6359,10 +6170,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>340</v>
+        <v>349</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>340</v>
+        <v>349</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6373,7 +6184,7 @@
         <v>78</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>77</v>
@@ -6382,18 +6193,20 @@
         <v>77</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>267</v>
+        <v>350</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>268</v>
+        <v>351</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="N40" s="2"/>
+        <v>352</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>353</v>
+      </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>77</v>
@@ -6442,28 +6255,28 @@
         <v>77</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>270</v>
+        <v>349</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>77</v>
+        <v>354</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>271</v>
+        <v>347</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>77</v>
+        <v>348</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>77</v>
@@ -6471,10 +6284,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>341</v>
+        <v>355</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>341</v>
+        <v>355</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6494,18 +6307,20 @@
         <v>77</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>132</v>
+        <v>219</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>133</v>
+        <v>356</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="N41" s="2"/>
+        <v>357</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>358</v>
+      </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>77</v>
@@ -6530,29 +6345,31 @@
         <v>77</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>77</v>
+        <v>223</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>77</v>
+        <v>359</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>77</v>
+        <v>360</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AC41" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AC41" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AD41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>136</v>
+        <v>77</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>274</v>
+        <v>355</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>78</v>
@@ -6564,31 +6381,29 @@
         <v>77</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>77</v>
+        <v>361</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>77</v>
+        <v>362</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>342</v>
+        <v>363</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="C42" t="s" s="2">
-        <v>343</v>
-      </c>
+        <v>363</v>
+      </c>
+      <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
         <v>77</v>
       </c>
@@ -6597,7 +6412,7 @@
         <v>78</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>77</v>
@@ -6606,19 +6421,19 @@
         <v>77</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>344</v>
+        <v>219</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>345</v>
+        <v>364</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>346</v>
+        <v>365</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>347</v>
+        <v>366</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -6644,13 +6459,13 @@
         <v>77</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>77</v>
+        <v>223</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>77</v>
+        <v>367</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>77</v>
+        <v>368</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>77</v>
@@ -6668,25 +6483,25 @@
         <v>77</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>274</v>
+        <v>363</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>145</v>
+        <v>77</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>77</v>
+        <v>369</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>77</v>
@@ -6697,14 +6512,14 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>348</v>
+        <v>370</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>348</v>
+        <v>370</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>349</v>
+        <v>77</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
@@ -6717,26 +6532,24 @@
         <v>77</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>132</v>
+        <v>371</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>350</v>
+        <v>372</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>351</v>
+        <v>373</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="O43" t="s" s="2">
-        <v>180</v>
-      </c>
+        <v>374</v>
+      </c>
+      <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>77</v>
       </c>
@@ -6784,7 +6597,7 @@
         <v>77</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>352</v>
+        <v>370</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>78</v>
@@ -6796,13 +6609,13 @@
         <v>77</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>130</v>
+        <v>375</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>77</v>
@@ -6813,10 +6626,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>353</v>
+        <v>376</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>353</v>
+        <v>376</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6827,7 +6640,7 @@
         <v>78</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>77</v>
@@ -6836,21 +6649,21 @@
         <v>77</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>354</v>
+        <v>377</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="N44" s="2"/>
-      <c r="O44" t="s" s="2">
-        <v>356</v>
-      </c>
+        <v>378</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>77</v>
       </c>
@@ -6874,13 +6687,13 @@
         <v>77</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>357</v>
+        <v>380</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>358</v>
+        <v>381</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>77</v>
@@ -6898,13 +6711,13 @@
         <v>77</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>353</v>
+        <v>376</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>77</v>
@@ -6913,24 +6726,24 @@
         <v>99</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>359</v>
+        <v>77</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>360</v>
+        <v>382</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>361</v>
+        <v>77</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>362</v>
+        <v>383</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>362</v>
+        <v>383</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6938,10 +6751,10 @@
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>77</v>
@@ -6950,20 +6763,20 @@
         <v>77</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>363</v>
+        <v>384</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>364</v>
+        <v>385</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>365</v>
+        <v>386</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
-        <v>366</v>
+        <v>387</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>77</v>
@@ -7012,13 +6825,13 @@
         <v>77</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>362</v>
+        <v>383</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>77</v>
@@ -7027,24 +6840,24 @@
         <v>99</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>367</v>
+        <v>77</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>368</v>
+        <v>382</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>369</v>
+        <v>77</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>370</v>
+        <v>77</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>371</v>
+        <v>388</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>371</v>
+        <v>388</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7055,7 +6868,7 @@
         <v>78</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>77</v>
@@ -7067,18 +6880,16 @@
         <v>77</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>372</v>
+        <v>219</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>373</v>
+        <v>389</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>374</v>
+        <v>390</v>
       </c>
       <c r="N46" s="2"/>
-      <c r="O46" t="s" s="2">
-        <v>375</v>
-      </c>
+      <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>77</v>
       </c>
@@ -7102,13 +6913,13 @@
         <v>77</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>77</v>
+        <v>223</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>77</v>
+        <v>391</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>77</v>
+        <v>392</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>77</v>
@@ -7126,13 +6937,13 @@
         <v>77</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>371</v>
+        <v>388</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>77</v>
@@ -7144,7 +6955,7 @@
         <v>77</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>376</v>
+        <v>393</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>77</v>
@@ -7155,10 +6966,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>377</v>
+        <v>394</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>377</v>
+        <v>394</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7169,7 +6980,7 @@
         <v>78</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>77</v>
@@ -7178,21 +6989,19 @@
         <v>77</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>378</v>
+        <v>395</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>380</v>
+        <v>397</v>
       </c>
       <c r="N47" s="2"/>
-      <c r="O47" t="s" s="2">
-        <v>381</v>
-      </c>
+      <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>77</v>
       </c>
@@ -7240,13 +7049,13 @@
         <v>77</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>377</v>
+        <v>394</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>77</v>
@@ -7255,24 +7064,24 @@
         <v>99</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>77</v>
+        <v>398</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>382</v>
+        <v>399</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>383</v>
+        <v>77</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>77</v>
+        <v>400</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>384</v>
+        <v>401</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>384</v>
+        <v>401</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7292,20 +7101,18 @@
         <v>77</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>230</v>
+        <v>285</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>385</v>
+        <v>402</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>387</v>
-      </c>
+        <v>403</v>
+      </c>
+      <c r="N48" s="2"/>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>77</v>
@@ -7330,13 +7137,13 @@
         <v>77</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>234</v>
+        <v>77</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>388</v>
+        <v>77</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>389</v>
+        <v>77</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>77</v>
@@ -7354,7 +7161,7 @@
         <v>77</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>384</v>
+        <v>401</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>78</v>
@@ -7369,13 +7176,13 @@
         <v>99</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>390</v>
+        <v>77</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>391</v>
+        <v>404</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>392</v>
+        <v>77</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>77</v>
@@ -7383,10 +7190,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>393</v>
+        <v>405</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>393</v>
+        <v>405</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7397,7 +7204,7 @@
         <v>78</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>77</v>
@@ -7406,20 +7213,18 @@
         <v>77</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>394</v>
+        <v>291</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>395</v>
+        <v>292</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>397</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="N49" s="2"/>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>77</v>
@@ -7468,28 +7273,28 @@
         <v>77</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>393</v>
+        <v>294</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>398</v>
+        <v>77</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>391</v>
+        <v>295</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>392</v>
+        <v>77</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>77</v>
@@ -7497,14 +7302,14 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>399</v>
+        <v>406</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>399</v>
+        <v>406</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>77</v>
+        <v>165</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
@@ -7520,19 +7325,19 @@
         <v>77</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>230</v>
+        <v>132</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>401</v>
+        <v>408</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>402</v>
+        <v>168</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -7558,13 +7363,13 @@
         <v>77</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>234</v>
+        <v>77</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>403</v>
+        <v>77</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>404</v>
+        <v>77</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>77</v>
@@ -7582,7 +7387,7 @@
         <v>77</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>399</v>
+        <v>297</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>78</v>
@@ -7594,61 +7399,63 @@
         <v>77</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>405</v>
+        <v>295</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>406</v>
+        <v>77</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>77</v>
+        <v>305</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="J51" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>230</v>
+        <v>132</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>408</v>
+        <v>306</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>409</v>
+        <v>307</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="O51" s="2"/>
+        <v>168</v>
+      </c>
+      <c r="O51" t="s" s="2">
+        <v>169</v>
+      </c>
       <c r="P51" t="s" s="2">
         <v>77</v>
       </c>
@@ -7672,13 +7479,13 @@
         <v>77</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>234</v>
+        <v>77</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>411</v>
+        <v>77</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>412</v>
+        <v>77</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>77</v>
@@ -7696,25 +7503,25 @@
         <v>77</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>407</v>
+        <v>308</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>413</v>
+        <v>130</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>77</v>
@@ -7725,10 +7532,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7739,7 +7546,7 @@
         <v>78</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>77</v>
@@ -7751,17 +7558,15 @@
         <v>77</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>415</v>
+        <v>219</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>418</v>
-      </c>
+        <v>412</v>
+      </c>
+      <c r="N52" s="2"/>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>77</v>
@@ -7786,13 +7591,13 @@
         <v>77</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>77</v>
+        <v>413</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>77</v>
+        <v>414</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>77</v>
@@ -7810,13 +7615,13 @@
         <v>77</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>77</v>
@@ -7828,7 +7633,7 @@
         <v>77</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>77</v>
@@ -7839,10 +7644,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7850,7 +7655,7 @@
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>87</v>
@@ -7865,13 +7670,13 @@
         <v>77</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>267</v>
+        <v>417</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>268</v>
+        <v>418</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>269</v>
+        <v>419</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -7922,10 +7727,10 @@
         <v>77</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>270</v>
+        <v>416</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>87</v>
@@ -7934,13 +7739,13 @@
         <v>77</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>271</v>
+        <v>420</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>77</v>
@@ -7977,16 +7782,20 @@
         <v>77</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>132</v>
+        <v>422</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>133</v>
+        <v>423</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="N54" s="2"/>
-      <c r="O54" s="2"/>
+        <v>424</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="O54" t="s" s="2">
+        <v>426</v>
+      </c>
       <c r="P54" t="s" s="2">
         <v>77</v>
       </c>
@@ -8022,19 +7831,19 @@
         <v>77</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AC54" t="s" s="2">
-        <v>273</v>
+        <v>77</v>
       </c>
       <c r="AD54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>136</v>
+        <v>77</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>274</v>
+        <v>421</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>78</v>
@@ -8046,13 +7855,13 @@
         <v>77</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>77</v>
+        <v>427</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>77</v>
@@ -8063,14 +7872,12 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="C55" t="s" s="2">
-        <v>423</v>
-      </c>
+        <v>428</v>
+      </c>
+      <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
         <v>77</v>
       </c>
@@ -8079,7 +7886,7 @@
         <v>78</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>77</v>
@@ -8091,16 +7898,16 @@
         <v>77</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>166</v>
+        <v>219</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="M55" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="N55" t="s" s="2">
         <v>425</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>426</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -8126,13 +7933,13 @@
         <v>77</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>77</v>
+        <v>223</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>77</v>
+        <v>431</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>77</v>
+        <v>432</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>77</v>
@@ -8150,7 +7957,7 @@
         <v>77</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>274</v>
+        <v>428</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>78</v>
@@ -8162,1946 +7969,18 @@
         <v>77</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>77</v>
+        <v>433</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="B56" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="C56" s="2"/>
-      <c r="D56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E56" s="2"/>
-      <c r="F56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G56" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J56" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K56" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="O56" s="2"/>
-      <c r="P56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q56" s="2"/>
-      <c r="R56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF56" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="AG56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH56" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI56" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="AJ56" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL56" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="AM56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN56" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="B57" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="C57" s="2"/>
-      <c r="D57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E57" s="2"/>
-      <c r="F57" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G57" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J57" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K57" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="O57" s="2"/>
-      <c r="P57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q57" s="2"/>
-      <c r="R57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X57" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="Y57" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="Z57" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="AA57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF57" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="AG57" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH57" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ57" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL57" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="AM57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN57" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="B58" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="C58" s="2"/>
-      <c r="D58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E58" s="2"/>
-      <c r="F58" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G58" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J58" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K58" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="L58" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="O58" s="2"/>
-      <c r="P58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q58" s="2"/>
-      <c r="R58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF58" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="AG58" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH58" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ58" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL58" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="AM58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN58" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="B59" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="C59" s="2"/>
-      <c r="D59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E59" s="2"/>
-      <c r="F59" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G59" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J59" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K59" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="L59" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="O59" s="2"/>
-      <c r="P59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q59" s="2"/>
-      <c r="R59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF59" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="AG59" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH59" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ59" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL59" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="AM59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN59" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="B60" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="C60" s="2"/>
-      <c r="D60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E60" s="2"/>
-      <c r="F60" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G60" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K60" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="L60" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="O60" s="2"/>
-      <c r="P60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q60" s="2"/>
-      <c r="R60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X60" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="Y60" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="Z60" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="AA60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF60" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="AG60" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH60" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ60" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL60" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="AM60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN60" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="B61" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="C61" s="2"/>
-      <c r="D61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E61" s="2"/>
-      <c r="F61" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G61" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K61" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="L61" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="N61" s="2"/>
-      <c r="O61" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="P61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q61" s="2"/>
-      <c r="R61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF61" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="AG61" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH61" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ61" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL61" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="AM61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN61" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="B62" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="C62" s="2"/>
-      <c r="D62" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E62" s="2"/>
-      <c r="F62" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G62" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H62" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I62" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J62" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K62" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="L62" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="N62" s="2"/>
-      <c r="O62" s="2"/>
-      <c r="P62" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q62" s="2"/>
-      <c r="R62" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S62" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T62" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U62" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V62" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W62" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X62" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="Y62" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="Z62" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="AA62" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB62" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC62" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD62" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE62" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF62" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="AG62" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH62" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI62" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ62" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK62" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL62" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="AM62" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN62" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="B63" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="C63" s="2"/>
-      <c r="D63" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E63" s="2"/>
-      <c r="F63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G63" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H63" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I63" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J63" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K63" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="L63" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="N63" s="2"/>
-      <c r="O63" s="2"/>
-      <c r="P63" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q63" s="2"/>
-      <c r="R63" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S63" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T63" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U63" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V63" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W63" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X63" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y63" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z63" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA63" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB63" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC63" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD63" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE63" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF63" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="AG63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH63" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI63" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ63" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK63" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="AL63" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="AM63" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN63" t="s" s="2">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="B64" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="C64" s="2"/>
-      <c r="D64" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E64" s="2"/>
-      <c r="F64" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G64" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H64" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I64" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J64" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K64" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="L64" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="N64" s="2"/>
-      <c r="O64" s="2"/>
-      <c r="P64" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q64" s="2"/>
-      <c r="R64" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S64" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T64" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U64" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V64" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W64" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X64" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y64" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z64" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA64" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB64" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC64" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD64" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE64" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF64" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="AG64" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH64" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI64" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ64" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK64" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL64" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="AM64" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN64" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="B65" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="C65" s="2"/>
-      <c r="D65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E65" s="2"/>
-      <c r="F65" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G65" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K65" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="L65" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="N65" s="2"/>
-      <c r="O65" s="2"/>
-      <c r="P65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q65" s="2"/>
-      <c r="R65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF65" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="AG65" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH65" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL65" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="AM65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN65" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="B66" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="C66" s="2"/>
-      <c r="D66" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E66" s="2"/>
-      <c r="F66" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G66" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H66" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I66" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J66" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K66" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="L66" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="N66" s="2"/>
-      <c r="O66" s="2"/>
-      <c r="P66" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q66" s="2"/>
-      <c r="R66" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S66" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T66" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U66" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V66" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W66" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X66" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y66" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z66" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA66" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB66" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AC66" s="2"/>
-      <c r="AD66" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE66" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AF66" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="AG66" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH66" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI66" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ66" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AK66" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL66" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM66" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN66" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="B67" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="C67" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="D67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E67" s="2"/>
-      <c r="F67" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K67" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="L67" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="O67" s="2"/>
-      <c r="P67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q67" s="2"/>
-      <c r="R67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF67" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="AG67" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI67" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="AJ67" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AK67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN67" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="B68" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="C68" s="2"/>
-      <c r="D68" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="E68" s="2"/>
-      <c r="F68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G68" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I68" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="J68" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K68" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="L68" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="O68" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="P68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q68" s="2"/>
-      <c r="R68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF68" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="AG68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH68" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ68" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AK68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL68" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="AM68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN68" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="B69" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="C69" s="2"/>
-      <c r="D69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E69" s="2"/>
-      <c r="F69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G69" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K69" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="L69" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="N69" s="2"/>
-      <c r="O69" s="2"/>
-      <c r="P69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q69" s="2"/>
-      <c r="R69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X69" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="Y69" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="Z69" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="AA69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF69" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="AG69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH69" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ69" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL69" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="AM69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN69" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="B70" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="C70" s="2"/>
-      <c r="D70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E70" s="2"/>
-      <c r="F70" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="G70" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K70" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="L70" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="N70" s="2"/>
-      <c r="O70" s="2"/>
-      <c r="P70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q70" s="2"/>
-      <c r="R70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF70" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="AG70" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH70" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ70" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL70" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="AM70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN70" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="B71" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="C71" s="2"/>
-      <c r="D71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E71" s="2"/>
-      <c r="F71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K71" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="L71" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="O71" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="P71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q71" s="2"/>
-      <c r="R71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF71" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="AG71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ71" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL71" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="AM71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN71" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="B72" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="C72" s="2"/>
-      <c r="D72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E72" s="2"/>
-      <c r="F72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K72" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="L72" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="O72" s="2"/>
-      <c r="P72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q72" s="2"/>
-      <c r="R72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X72" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="Y72" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="Z72" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="AA72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF72" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="AG72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ72" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL72" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="AM72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN72" t="s" s="2">
         <v>77</v>
       </c>
     </row>
